--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48E6FE6-48A9-419B-9FD7-5368EB277A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE3038-BF20-4C74-86E2-E7E8338E4FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{60C561C4-A8AD-4BFD-B224-46CAA9B42958}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
   <si>
     <t>고정실</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,25 @@
   </si>
   <si>
     <t>t_p_value_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김득실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김충연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민병춘1</t>
+  </si>
+  <si>
+    <t>민병춘1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +143,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="0.000.E+00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +161,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,11 +191,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,14 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F92CB1-65C5-4F2D-87CB-76ED96014580}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
@@ -588,6 +626,216 @@
         <v>-2.6386060392891201E-3</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.5452452637475298E-9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0285707887462498E-9</v>
+      </c>
+      <c r="D4">
+        <v>-63.780924622158103</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F26" si="0">IF(E4&lt;0.001, "&lt;0.001", E4)</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G4">
+        <v>-0.10630892488308399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.10914133658221E-9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.14156245401172E-9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-7.5532186058878796</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.2489590273269699E-14</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.103966547926114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.10297658507823E-9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.3466908487452601E-9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-27.769562979409301</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-5.2013028529325503E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.1377537863300999E-10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.5981439895432805E-10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-36.080742166360103</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-6.5029186722258894E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,121 +844,430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E8CA52-FCB8-415B-B580-33138872E839}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>2.9838E-9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>5.8917000000000004E-10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0.5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="str">
         <f>IF(E2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>2027.4</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="str">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="str">
         <f>IF(H2&lt;0.001, "&lt;0.001", H2)</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>3.5230999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>3.5091998348161698E-10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>3.4200231694734398E-10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0.49999996909841299</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="str">
         <f>IF(E3&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>-1.48363816940954</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0.137905378502061</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <f>IF(H3&lt;0.001, "&lt;0.001", H3)</f>
         <v>0.137905378502061</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>-2.4790554467333499E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.54543586610095E-9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.0285707887462498E-9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.49999998215429797</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" ref="F4:F24" si="0">IF(E4&lt;0.001, "&lt;0.001")</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-67.175166146589106</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ref="I4:I24" si="1">IF(H4&lt;0.001, "&lt;0.001", H4)</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-0.10625992980917399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.11306580713227E-9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.1912247037030101E-9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.49999996324251</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>62.3644438215956</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.103988974829825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.01322286269481E-9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.4052216727259801E-9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.49999937776854397</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-31.1710954336694</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-5.2002088905102703E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.1402915697320298E-10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.5981439895432805E-10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.499999999577803</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-39.024569983680998</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-6.5025572608246401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAFC036-1BA0-409D-919E-6C48366D2901}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,7 +1385,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C9" si="0">A3 &amp; "_" &amp; B3</f>
+        <f t="shared" ref="C3:C25" si="0">A3 &amp; "_" &amp; B3</f>
         <v>고정실_theta</v>
       </c>
       <c r="D3" s="1">
@@ -844,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H9" si="1">IF(G3&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="H3:H25" si="1">IF(G3&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I3" s="1">
@@ -854,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K9" si="2">IF(J3&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="K3:K25" si="2">IF(J3&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L3" s="1">
@@ -1106,6 +1663,662 @@
       </c>
       <c r="L9" s="1">
         <v>-0.12556770325547401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김득실_delta</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.6125853050896207E-9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.1101210828713203E-9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.49999997748778802</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16.404432456016501</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.7259774316173099E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김득실_theta</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.44986491663055E-9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.2962934283198403E-9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.49999999415045998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-193.73471091180801</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.30293267610750702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김득실_alpha</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.73898652485384E-9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5701539978724599E-9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.49999998480267999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-143.440071350084</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-0.21711705101277601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김득실_beta</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.10128654535678E-9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.6651987078903001E-9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.49999997529783402</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-87.194955081027601</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-0.13845712204160701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김영현_delta</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.0766767006557704E-9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.2982179512395999E-9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.49999982578172603</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-8.3269336800928198</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1.4858752245634601E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김영현_theta</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.1781977470649695E-10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1534165251152801E-9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.49999991086481899</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-30.223520842724199</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-5.3799329235794599E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김영현_alpha</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.5298226563894E-10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.5991161718002402E-10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.49999996461449597</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-46.045127667810497</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-8.2060887758690595E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김영현_beta</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.6353225287690197E-11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.3534497998862797E-11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.49999999914227</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-38.862676763988297</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-6.9180348365493305E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김충연_delta</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.0204050936245697E-9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.9885875884570599E-8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.499998694035935</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-35.829191083296003</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-6.0987097083858001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김충연_theta</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.65995376703507E-9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.02138477319653E-9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.49999879510774298</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-11.388885204065</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-1.9376777440196599E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김충연_alpha</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.1416750756820198E-10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.1999915602170799E-9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.49999949215155998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-12.249586183396501</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-2.0837295343958201E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김충연_beta</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.84896253983189E-10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.47015033671103E-10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.49999956024065101</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-8.8088866760100597</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.266774970336E-18</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1.4985439082963599E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>민병춘1_delta</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4.4751125028571404E-9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.7684583336353497E-9</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.49999999756908198</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-33.494349162811801</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-5.5606677644642701E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>민병춘1_theta</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.9796723501857504E-10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.4428173403819603E-10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.499999998865854</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-31.413977318130801</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-5.2104172706581298E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>민병춘1_alpha</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.49759874161753E-10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.57600813982982E-10</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.49999999947889201</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-15.338398634867</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-2.5618270467528698E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>민병춘1_beta</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3.2415703720898997E-11</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.4143794323236099E-11</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.49999999962794001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-10.531627170313101</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-1.7587079769069501E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE3038-BF20-4C74-86E2-E7E8338E4FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763CCBE-3054-437F-9826-3C01474F553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{60C561C4-A8AD-4BFD-B224-46CAA9B42958}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{60C561C4-A8AD-4BFD-B224-46CAA9B42958}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>고정실</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,13 @@
   </si>
   <si>
     <t>민병춘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박주연1</t>
+  </si>
+  <si>
+    <t>박주연1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,9 +151,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.000.E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000.E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +168,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,20 +192,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,7 +539,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,9 +718,27 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.2762156235543502E-10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.4315604917213196E-10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-61.892372432651399</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-8.8891297710815997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -846,426 +859,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E8CA52-FCB8-415B-B580-33138872E839}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>2.9838E-9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>5.8917000000000004E-10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>0.5</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="str">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <f>IF(E2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>2027.4</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="str">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
         <f>IF(H2&lt;0.001, "&lt;0.001", H2)</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>3.5230999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>3.5091998348161698E-10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>3.4200231694734398E-10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>0.49999996909841299</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="str">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <f>IF(E3&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>-1.48363816940954</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>0.137905378502061</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <f>IF(H3&lt;0.001, "&lt;0.001", H3)</f>
         <v>0.137905378502061</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>-2.4790554467333499E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>2.54543586610095E-9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3.0285707887462498E-9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>0.49999998215429797</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="str">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <f t="shared" ref="F4:F24" si="0">IF(E4&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>-67.175166146589106</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="str">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="str">
         <f t="shared" ref="I4:I24" si="1">IF(H4&lt;0.001, "&lt;0.001", H4)</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>-0.10625992980917399</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1.11306580713227E-9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>1.1912247037030101E-9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>0.49999996324251</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G5" s="2">
         <v>62.3644438215956</v>
       </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.103988974829825</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>1.01322286269481E-9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>3.4052216727259801E-9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>0.49999937776854397</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G6" s="2">
         <v>-31.1710954336694</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J6" s="2">
         <v>-5.2002088905102703E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>7.1402915697320298E-10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>7.5981439895432805E-10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>0.499999999577803</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G7" s="2">
         <v>-39.024569983680998</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J7" s="2">
         <v>-6.5025572608246401E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.2779282462777899E-10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.4364672244138895E-10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.49999999834423398</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-52.572148143238799</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-8.8920433425720896E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I9" s="4" t="str">
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I10" s="4" t="str">
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I11" s="4" t="str">
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I12" s="4" t="str">
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I13" s="4" t="str">
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I14" s="4" t="str">
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I15" s="4" t="str">
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I16" s="4" t="str">
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I17" s="4" t="str">
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I18" s="4" t="str">
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I19" s="4" t="str">
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I20" s="4" t="str">
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I21" s="4" t="str">
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I22" s="4" t="str">
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I23" s="4" t="str">
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I24" s="4" t="str">
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
@@ -1278,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAFC036-1BA0-409D-919E-6C48366D2901}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C25" si="0">A3 &amp; "_" &amp; B3</f>
+        <f t="shared" ref="C3:C29" si="0">A3 &amp; "_" &amp; B3</f>
         <v>고정실_theta</v>
       </c>
       <c r="D3" s="1">
@@ -1401,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H25" si="1">IF(G3&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="H3:H29" si="1">IF(G3&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I3" s="1">
@@ -1411,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K25" si="2">IF(J3&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="K3:K29" si="2">IF(J3&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L3" s="1">
@@ -2168,13 +2205,13 @@
         <f t="shared" si="0"/>
         <v>민병춘1_delta</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>4.4751125028571404E-9</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>4.7684583336353497E-9</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>0.49999999756908198</v>
       </c>
       <c r="G22" s="1">
@@ -2184,7 +2221,7 @@
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>-33.494349162811801</v>
       </c>
       <c r="J22" s="1">
@@ -2194,7 +2231,7 @@
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>-5.5606677644642701E-2</v>
       </c>
     </row>
@@ -2212,10 +2249,10 @@
       <c r="D23" s="1">
         <v>7.9796723501857504E-10</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>8.4428173403819603E-10</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>0.499999998865854</v>
       </c>
       <c r="G23" s="1">
@@ -2225,7 +2262,7 @@
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>-31.413977318130801</v>
       </c>
       <c r="J23" s="1">
@@ -2235,7 +2272,7 @@
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <v>-5.2104172706581298E-2</v>
       </c>
     </row>
@@ -2250,13 +2287,13 @@
         <f t="shared" si="0"/>
         <v>민병춘1_alpha</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>1.49759874161753E-10</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1.57600813982982E-10</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>0.49999999947889201</v>
       </c>
       <c r="G24" s="1">
@@ -2266,7 +2303,7 @@
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>-15.338398634867</v>
       </c>
       <c r="J24" s="1">
@@ -2276,7 +2313,7 @@
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>-2.5618270467528698E-2</v>
       </c>
     </row>
@@ -2291,13 +2328,13 @@
         <f t="shared" si="0"/>
         <v>민병춘1_beta</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>3.2415703720898997E-11</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>3.4143794323236099E-11</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>0.49999999962794001</v>
       </c>
       <c r="G25" s="1">
@@ -2307,7 +2344,7 @@
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>-10.531627170313101</v>
       </c>
       <c r="J25" s="1">
@@ -2317,8 +2354,172 @@
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <v>-1.7587079769069501E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연1_delta</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0076160894255001E-9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.9975712662078299E-9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.49999999205990497</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5.3910322840424598</v>
+      </c>
+      <c r="J26" s="1">
+        <v>7.0076208526068405E-8</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9.3351740827146007E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연1_theta</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.7394769605708102E-10</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9.7863025519308604E-10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.49999999565056702</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-218.34918313201399</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-0.359837551848527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연1_alpha</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.2033101835535597E-10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5.6149408043782501E-10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.49999999948150398</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-122.1993452853</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-0.20857172319136499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연1_beta</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.5508447961150706E-11</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.8424853523629099E-11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.49999999941082801</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>129.91552999599901</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.222953334000249</v>
       </c>
     </row>
   </sheetData>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763CCBE-3054-437F-9826-3C01474F553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630D333-832F-4937-8860-3CBE7CA47929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{60C561C4-A8AD-4BFD-B224-46CAA9B42958}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,112 +35,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>t_statistics</t>
+  </si>
+  <si>
+    <t>t_p_value_real</t>
+  </si>
+  <si>
+    <t>t_p_value</t>
+  </si>
+  <si>
+    <t>effect_size</t>
+  </si>
   <si>
     <t>고정실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김가람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_p_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ks_p_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ks_statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean_before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean_after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ks_p_value_real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_p_value_real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김득실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김영현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김충연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>민병춘1</t>
   </si>
   <si>
-    <t>민병춘1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박주연1</t>
   </si>
   <si>
-    <t>박주연1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>박주연2</t>
+  </si>
+  <si>
+    <t>벌</t>
+  </si>
+  <si>
+    <t>안중훈</t>
+  </si>
+  <si>
+    <t>윤병시</t>
+  </si>
+  <si>
+    <t>임석봉</t>
+  </si>
+  <si>
+    <t>ks_statistics</t>
+  </si>
+  <si>
+    <t>ks_p_value_real</t>
+  </si>
+  <si>
+    <t>ks_p_value</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>mean_before</t>
+  </si>
+  <si>
+    <t>mean_after</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
 </sst>
 </file>
@@ -192,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,6 +183,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -535,47 +517,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F92CB1-65C5-4F2D-87CB-76ED96014580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1.0526000000000001E-9</v>
@@ -583,23 +565,23 @@
       <c r="C2" s="1">
         <v>1.2846000000000001E-9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-47.823</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="str">
-        <f>IF(E2&lt;0.001, "&lt;0.001", E2)</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2:F26" si="0">IF(E2&lt;0.001, "&lt;0.001", E2)</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.10397000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>3.5088009234061101E-10</v>
@@ -607,23 +589,23 @@
       <c r="C3" s="1">
         <v>3.4260792557732598E-10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2.9443158432443099</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3.23674719415265E-3</v>
       </c>
-      <c r="F3">
-        <f>IF(E3&lt;0.001, "&lt;0.001", E3)</f>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
         <v>3.23674719415265E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-2.6386060392891201E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>2.5452452637475298E-9</v>
@@ -631,23 +613,23 @@
       <c r="C4" s="1">
         <v>3.0285707887462498E-9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-63.780924622158103</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" ref="F4:F26" si="0">IF(E4&lt;0.001, "&lt;0.001", E4)</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G4" s="1">
         <v>-0.10630892488308399</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1.10914133658221E-9</v>
@@ -670,8 +652,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1.10297658507823E-9</v>
@@ -694,8 +676,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>7.1377537863300999E-10</v>
@@ -718,17 +700,17 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>6.2762156235543502E-10</v>
+        <v>6.2762156235543523E-10</v>
       </c>
       <c r="C8" s="1">
-        <v>6.4315604917213196E-10</v>
+        <v>6.4315604917213289E-10</v>
       </c>
       <c r="D8" s="1">
-        <v>-61.892372432651399</v>
+        <v>-61.892372432651442</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -742,27 +724,99 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.1203676420221334E-10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.7764329381962589E-10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-39.920401040255463</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.15150964496772251</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.6399011673345401E-9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0062293245574859E-9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-51.048257679779773</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.19502140239684451</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.3507701858264781E-10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.1578772531666668E-10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60.932499956346632</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-4.5770662172737293E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.154783202679103E-9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.6672835543063999E-10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>153.08644699273381</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-7.5863227974396902E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -772,9 +826,27 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.1784145640680152E-10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.7676305673191662E-10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>614.81799315216165</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0256063928471091</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -856,16 +928,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E8CA52-FCB8-415B-B580-33138872E839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" style="2" bestFit="1" customWidth="1"/>
@@ -874,44 +946,45 @@
     <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="16" width="9" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>2.9838E-9</v>
@@ -926,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>IF(E2&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="F2:F24" si="0">IF(E2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="G2" s="2">
@@ -936,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>IF(H2&lt;0.001, "&lt;0.001", H2)</f>
+        <f t="shared" ref="I2:I24" si="1">IF(H2&lt;0.001, "&lt;0.001", H2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="J2" s="2">
@@ -945,7 +1018,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>3.5091998348161698E-10</v>
@@ -960,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>IF(E3&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
       <c r="G3" s="2">
@@ -970,7 +1043,7 @@
         <v>0.137905378502061</v>
       </c>
       <c r="I3" s="2">
-        <f>IF(H3&lt;0.001, "&lt;0.001", H3)</f>
+        <f t="shared" si="1"/>
         <v>0.137905378502061</v>
       </c>
       <c r="J3" s="2">
@@ -979,7 +1052,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>2.54543586610095E-9</v>
@@ -994,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F24" si="0">IF(E4&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
       <c r="G4" s="2">
@@ -1004,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I24" si="1">IF(H4&lt;0.001, "&lt;0.001", H4)</f>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="J4" s="2">
@@ -1013,7 +1086,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1.11306580713227E-9</v>
@@ -1047,7 +1120,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>1.01322286269481E-9</v>
@@ -1081,7 +1154,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>7.1402915697320298E-10</v>
@@ -1115,16 +1188,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>6.2779282462777899E-10</v>
+        <v>6.2779282462777992E-10</v>
       </c>
       <c r="C8" s="2">
-        <v>6.4364672244138895E-10</v>
+        <v>6.4364672244138906E-10</v>
       </c>
       <c r="D8" s="2">
-        <v>0.49999999834423398</v>
+        <v>0.4999999983442347</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1134,7 +1207,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="G8" s="2">
-        <v>-52.572148143238799</v>
+        <v>-52.57214814323887</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1148,43 +1221,139 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.1379061983701989E-10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.7764329381962589E-10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.49999999928320599</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G9" s="2">
+        <v>-90.932174928237032</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="J9" s="2">
+        <v>-0.1514981811442693</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.667464388405001E-9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.0062293245574859E-9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.49999999844812482</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G10" s="2">
+        <v>-116.8476790972572</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="J10" s="2">
+        <v>-0.19501022550371461</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.3469253069466698E-10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.157699449883163E-10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.49999999956093272</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G11" s="2">
+        <v>-27.638360279918999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="J11" s="2">
+        <v>-4.5846298564607847E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.1474190214195709E-9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.6721134901531616E-10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.49999999781286703</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G12" s="2">
+        <v>-4.5917774387547379</v>
+      </c>
+      <c r="H12">
+        <v>4.3956109501851402E-6</v>
+      </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-7.6306581966012893E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1198,13 +1367,37 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7.1788291378982501E-10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.7677070646684614E-10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.49999999976090831</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G14" s="2">
+        <v>620.43319791541558</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0256365759628669</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1314,74 +1507,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAFC036-1BA0-409D-919E-6C48366D2901}">
-  <dimension ref="A1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>A2 &amp; "_" &amp; B2</f>
+        <f t="shared" ref="C2:C53" si="0">A2 &amp; "_" &amp; B2</f>
         <v>고정실_delta</v>
       </c>
       <c r="D2" s="1">
@@ -1397,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF(G2&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="H2:H44" si="1">IF(G2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I2" s="1">
@@ -1407,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f>IF(J2&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="K2:K53" si="2">IF(J2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L2" s="1">
@@ -1416,13 +1609,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C29" si="0">A3 &amp; "_" &amp; B3</f>
+        <f t="shared" si="0"/>
         <v>고정실_theta</v>
       </c>
       <c r="D3" s="1">
@@ -1438,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H29" si="1">IF(G3&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I3" s="1">
@@ -1448,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K29" si="2">IF(J3&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L3" s="1">
@@ -1457,10 +1650,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1498,10 +1691,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1539,10 +1732,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1580,13 +1773,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>A7 &amp; "_" &amp; B7</f>
+        <f t="shared" si="0"/>
         <v>김가람_theta</v>
       </c>
       <c r="D7" s="1">
@@ -1622,10 +1815,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1663,10 +1856,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1704,10 +1897,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1745,10 +1938,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1786,10 +1979,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1827,10 +2020,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1868,10 +2061,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1909,10 +2102,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1950,10 +2143,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1991,10 +2184,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2032,10 +2225,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2073,10 +2266,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2114,10 +2307,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2155,10 +2348,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2196,10 +2389,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2237,10 +2430,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2278,10 +2471,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2319,10 +2512,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2360,23 +2553,23 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>박주연1_delta</v>
       </c>
       <c r="D26" s="1">
-        <v>3.0076160894255001E-9</v>
+        <v>6.2779282462777992E-10</v>
       </c>
       <c r="E26" s="1">
-        <v>2.9975712662078299E-9</v>
+        <v>6.4364672244138906E-10</v>
       </c>
       <c r="F26" s="1">
-        <v>0.49999999205990497</v>
+        <v>0.4999999983442347</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -2386,38 +2579,38 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I26" s="1">
-        <v>5.3910322840424598</v>
+        <v>-52.57214814323887</v>
       </c>
       <c r="J26" s="1">
-        <v>7.0076208526068405E-8</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.3351740827146007E-3</v>
+        <v>-8.8920433425720896E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>박주연1_theta</v>
       </c>
       <c r="D27" s="1">
-        <v>8.7394769605708102E-10</v>
+        <v>6.2779282462777992E-10</v>
       </c>
       <c r="E27" s="1">
-        <v>9.7863025519308604E-10</v>
+        <v>6.4364672244138906E-10</v>
       </c>
       <c r="F27" s="1">
-        <v>0.49999999565056702</v>
+        <v>0.4999999983442347</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -2427,7 +2620,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I27" s="1">
-        <v>-218.34918313201399</v>
+        <v>-52.57214814323887</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2437,28 +2630,28 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L27" s="1">
-        <v>-0.359837551848527</v>
+        <v>-8.8920433425720896E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>박주연1_alpha</v>
       </c>
       <c r="D28" s="1">
-        <v>5.2033101835535597E-10</v>
+        <v>6.2779282462777992E-10</v>
       </c>
       <c r="E28" s="1">
-        <v>5.6149408043782501E-10</v>
+        <v>6.4364672244138906E-10</v>
       </c>
       <c r="F28" s="1">
-        <v>0.49999999948150398</v>
+        <v>0.4999999983442347</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -2468,7 +2661,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I28" s="1">
-        <v>-122.1993452853</v>
+        <v>-52.57214814323887</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2478,48 +2671,936 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L28" s="1">
-        <v>-0.20857172319136499</v>
+        <v>-8.8920433425720896E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연1_beta</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.2779282462777992E-10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6.4364672244138906E-10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.4999999983442347</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-52.57214814323887</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-8.8920433425720896E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연2_delta</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.1379061983701989E-10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.7764329381962589E-10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.49999999928320599</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-90.932174928237032</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-0.1514981811442693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연2_theta</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5.1379061983701989E-10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7.7764329381962589E-10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.49999999928320599</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-90.932174928237032</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-0.1514981811442693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연2_alpha</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.1379061983701989E-10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7.7764329381962589E-10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.49999999928320599</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-90.932174928237032</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-0.1514981811442693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>박주연2_beta</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.1379061983701989E-10</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7.7764329381962589E-10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.49999999928320599</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-90.932174928237032</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-0.1514981811442693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>박주연1_beta</v>
-      </c>
-      <c r="D29" s="1">
-        <v>8.5508447961150706E-11</v>
-      </c>
-      <c r="E29" s="1">
-        <v>7.8424853523629099E-11</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.49999999941082801</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I29" s="1">
-        <v>129.91552999599901</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.222953334000249</v>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>벌_delta</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.667464388405001E-9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.0062293245574859E-9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.49999999844812482</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-116.8476790972572</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-0.19501022550371461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>벌_theta</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.667464388405001E-9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.0062293245574859E-9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.49999999844812482</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-116.8476790972572</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-0.19501022550371461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>벌_alpha</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.667464388405001E-9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.0062293245574859E-9</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.49999999844812482</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-116.8476790972572</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-0.19501022550371461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>벌_beta</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.667464388405001E-9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.0062293245574859E-9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.49999999844812482</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-116.8476790972572</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L37" s="1">
+        <v>-0.19501022550371461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>안중훈_delta</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.3469253069466698E-10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4.157699449883163E-10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.49999999956093272</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-27.638360279918999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-4.5846298564607847E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>안중훈_theta</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.3469253069466698E-10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4.157699449883163E-10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.49999999956093272</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-27.638360279918999</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L39" s="1">
+        <v>-4.5846298564607847E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>안중훈_alpha</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.3469253069466698E-10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4.157699449883163E-10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.49999999956093272</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-27.638360279918999</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L40" s="1">
+        <v>-4.5846298564607847E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>안중훈_beta</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4.3469253069466698E-10</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4.157699449883163E-10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.49999999956093272</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-27.638360279918999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-4.5846298564607847E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>윤병시_delta</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.1474190214195709E-9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>9.6721134901531616E-10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.49999999781286703</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-4.5917774387547379</v>
+      </c>
+      <c r="J42">
+        <v>4.3956109501851402E-6</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L42" s="1">
+        <v>-7.6306581966012893E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>윤병시_theta</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.1474190214195709E-9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9.6721134901531616E-10</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.49999999781286703</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-4.5917774387547379</v>
+      </c>
+      <c r="J43">
+        <v>4.3956109501851402E-6</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L43" s="1">
+        <v>-7.6306581966012893E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>윤병시_alpha</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.1474190214195709E-9</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9.6721134901531616E-10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.49999999781286703</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-4.5917774387547379</v>
+      </c>
+      <c r="J44">
+        <v>4.3956109501851402E-6</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L44" s="1">
+        <v>-7.6306581966012893E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>윤병시_beta</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.1474190214195709E-9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>9.6721134901531616E-10</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.49999999781286703</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>IF(G45&lt;0.001, "&lt;0.001")</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-4.5917774387547379</v>
+      </c>
+      <c r="J45">
+        <v>4.3956109501851402E-6</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-7.6306581966012893E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>_delta</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" ref="H46:H53" si="3">IF(G46&lt;0.001, "&lt;0.001")</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>_theta</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>_alpha</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>_beta</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>임석봉_delta</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7.1788291378982501E-10</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.7677070646684614E-10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.49999999976090831</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I50" s="1">
+        <v>620.43319791541558</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1.0256365759628669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>임석봉_theta</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7.1788291378982501E-10</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.7677070646684614E-10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.49999999976090831</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I51" s="1">
+        <v>620.43319791541558</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.0256365759628669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>임석봉_alpha</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7.1788291378982501E-10</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4.7677070646684614E-10</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.49999999976090831</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>620.43319791541558</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1.0256365759628669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>임석봉_beta</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7.1788291378982501E-10</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4.7677070646684614E-10</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.49999999976090831</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I53" s="1">
+        <v>620.43319791541558</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1.0256365759628669</v>
       </c>
     </row>
   </sheetData>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630D333-832F-4937-8860-3CBE7CA47929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3D36E-EEDC-48D8-A758-540DFF24A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>임석봉</t>
+  </si>
+  <si>
+    <t>전창희</t>
+  </si>
+  <si>
+    <t>정광훈2</t>
+  </si>
+  <si>
+    <t>정용태</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ks_statistics</t>
@@ -188,7 +200,99 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -520,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -850,72 +954,126 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.3144315801433842E-10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.0095878946026439E-10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36.172221073383866</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.14017670383279421</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.2133134415501066E-10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8.0260391211412883E-10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>46.498359098826327</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.14116086927792421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2.7779415366213732E-9</v>
+      </c>
+      <c r="C18">
+        <v>2.5248927580102231E-9</v>
+      </c>
+      <c r="D18">
+        <v>53.437589214803587</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="G18">
+        <v>5.7687739161535433E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
@@ -923,16 +1081,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B18">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>B2&gt;C2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>C2&gt;B2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -946,8 +1114,8 @@
     <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="11" max="19" width="9" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -961,13 +1129,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1401,26 +1569,74 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.317389332586476E-10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.0351757932991399E-10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.49999999248151489</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G15" s="2">
+        <v>84.0378571305598</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="J15" s="2">
+        <v>0.14020915087545521</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9.2469712612022644E-10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.1383985052547745E-10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.49999998033193499</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G16" s="2">
+        <v>84.623824897705362</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="2">
+        <v>0.14119236804840249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
@@ -1430,88 +1646,62 @@
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.778005927308149E-9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.525554833677746E-9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.49999999933825329</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G18" s="2">
+        <v>34.61131680030028</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
+      <c r="J18" s="2">
+        <v>5.7699329070547957E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B18">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>B2&gt;C2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>C2&gt;B2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1533,25 +1723,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1571,10 +1761,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C53" si="0">A2 &amp; "_" &amp; B2</f>
+        <f t="shared" ref="C2:C33" si="0">A2 &amp; "_" &amp; B2</f>
         <v>고정실_delta</v>
       </c>
       <c r="D2" s="1">
@@ -1590,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H44" si="1">IF(G2&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="H2:H33" si="1">IF(G2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I2" s="1">
@@ -1600,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f t="shared" ref="K2:K53" si="2">IF(J2&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="K2:K33" si="2">IF(J2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L2" s="1">
@@ -1612,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1653,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1694,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1735,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1776,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1818,7 +2008,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1859,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1900,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1941,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1982,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2023,7 +2213,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2064,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2105,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2146,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2187,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2228,7 +2418,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2269,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2310,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2351,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2392,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2433,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2474,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2515,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2556,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2597,7 +2787,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2638,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2679,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2720,7 +2910,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2761,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2802,7 +2992,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2843,7 +3033,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2884,10 +3074,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C34:C65" si="3">A34 &amp; "_" &amp; B34</f>
         <v>벌_delta</v>
       </c>
       <c r="D34" s="1">
@@ -2903,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H34:H69" si="4">IF(G34&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I34" s="1">
@@ -2913,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K34:K69" si="5">IF(J34&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L34" s="1">
@@ -2925,10 +3115,10 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>벌_theta</v>
       </c>
       <c r="D35" s="1">
@@ -2944,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I35" s="1">
@@ -2954,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L35" s="1">
@@ -2966,10 +3156,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>벌_alpha</v>
       </c>
       <c r="D36" s="1">
@@ -2985,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I36" s="1">
@@ -2995,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L36" s="1">
@@ -3007,10 +3197,10 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>벌_beta</v>
       </c>
       <c r="D37" s="1">
@@ -3026,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I37" s="1">
@@ -3036,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L37" s="1">
@@ -3048,10 +3238,10 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>안중훈_delta</v>
       </c>
       <c r="D38" s="1">
@@ -3067,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I38" s="1">
@@ -3077,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L38" s="1">
@@ -3089,10 +3279,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>안중훈_theta</v>
       </c>
       <c r="D39" s="1">
@@ -3108,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I39" s="1">
@@ -3118,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L39" s="1">
@@ -3130,10 +3320,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>안중훈_alpha</v>
       </c>
       <c r="D40" s="1">
@@ -3149,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I40" s="1">
@@ -3159,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L40" s="1">
@@ -3171,10 +3361,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>안중훈_beta</v>
       </c>
       <c r="D41" s="1">
@@ -3190,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I41" s="1">
@@ -3200,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L41" s="1">
@@ -3212,10 +3402,10 @@
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>윤병시_delta</v>
       </c>
       <c r="D42" s="1">
@@ -3231,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I42" s="1">
@@ -3241,7 +3431,7 @@
         <v>4.3956109501851402E-6</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L42" s="1">
@@ -3253,10 +3443,10 @@
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>윤병시_theta</v>
       </c>
       <c r="D43" s="1">
@@ -3272,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I43" s="1">
@@ -3282,7 +3472,7 @@
         <v>4.3956109501851402E-6</v>
       </c>
       <c r="K43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L43" s="1">
@@ -3294,10 +3484,10 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>윤병시_alpha</v>
       </c>
       <c r="D44" s="1">
@@ -3313,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I44" s="1">
@@ -3323,7 +3513,7 @@
         <v>4.3956109501851402E-6</v>
       </c>
       <c r="K44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L44" s="1">
@@ -3335,10 +3525,10 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>윤병시_beta</v>
       </c>
       <c r="D45" s="1">
@@ -3354,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF(G45&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I45" s="1">
@@ -3364,7 +3554,7 @@
         <v>4.3956109501851402E-6</v>
       </c>
       <c r="K45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L45" s="1">
@@ -3373,69 +3563,69 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_delta</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f t="shared" ref="H46:H53" si="3">IF(G46&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_theta</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_alpha</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_beta</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="K49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
     </row>
@@ -3444,10 +3634,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>임석봉_delta</v>
       </c>
       <c r="D50" s="1">
@@ -3463,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I50" s="1">
@@ -3473,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L50" s="1">
@@ -3485,10 +3675,10 @@
         <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>임석봉_theta</v>
       </c>
       <c r="D51" s="1">
@@ -3504,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I51" s="1">
@@ -3514,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L51" s="1">
@@ -3526,10 +3716,10 @@
         <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>임석봉_alpha</v>
       </c>
       <c r="D52" s="1">
@@ -3545,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I52" s="1">
@@ -3555,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L52" s="1">
@@ -3567,10 +3757,10 @@
         <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>임석봉_beta</v>
       </c>
       <c r="D53" s="1">
@@ -3586,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I53" s="1">
@@ -3596,15 +3786,585 @@
         <v>0</v>
       </c>
       <c r="K53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L53" s="1">
         <v>1.0256365759628669</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>전창희_delta</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.317389332586476E-10</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3.0351757932991399E-10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.49999999248151489</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I54" s="1">
+        <v>84.0378571305598</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.14020915087545521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>전창희_theta</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.317389332586476E-10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3.0351757932991399E-10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.49999999248151489</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I55" s="1">
+        <v>84.0378571305598</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.14020915087545521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>전창희_alpha</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.317389332586476E-10</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3.0351757932991399E-10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.49999999248151489</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I56" s="1">
+        <v>84.0378571305598</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.14020915087545521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>전창희_beta</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.317389332586476E-10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3.0351757932991399E-10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.49999999248151489</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I57" s="1">
+        <v>84.0378571305598</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.14020915087545521</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>정광훈2_delta</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9.2469712612022644E-10</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8.1383985052547745E-10</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.49999998033193499</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I58" s="1">
+        <v>84.623824897705362</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.14119236804840249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>정광훈2_theta</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9.2469712612022644E-10</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8.1383985052547745E-10</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.49999998033193499</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I59" s="1">
+        <v>84.623824897705362</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.14119236804840249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>정광훈2_alpha</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9.2469712612022644E-10</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8.1383985052547745E-10</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.49999998033193499</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I60" s="1">
+        <v>84.623824897705362</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.14119236804840249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>정광훈2_beta</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9.2469712612022644E-10</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8.1383985052547745E-10</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.49999998033193499</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I61" s="1">
+        <v>84.623824897705362</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.14119236804840249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" ref="C62:C69" si="6">A62 &amp; "_" &amp; B62</f>
+        <v>_delta</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>_theta</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K63" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>_alpha</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>_beta</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정용태_delta</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.778005927308149E-9</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2.525554833677746E-9</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.49999999933825329</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I66" s="1">
+        <v>34.61131680030028</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L66" s="1">
+        <v>5.7699329070547957E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정용태_theta</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2.778005927308149E-9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2.525554833677746E-9</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.49999999933825329</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I67" s="1">
+        <v>34.61131680030028</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L67" s="1">
+        <v>5.7699329070547957E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정용태_alpha</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.778005927308149E-9</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.525554833677746E-9</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.49999999933825329</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I68" s="1">
+        <v>34.61131680030028</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L68" s="1">
+        <v>5.7699329070547957E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정용태_beta</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.778005927308149E-9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2.525554833677746E-9</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.49999999933825329</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="I69" s="1">
+        <v>34.61131680030028</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="L69" s="1">
+        <v>5.7699329070547957E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D69">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>D2&gt;E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E69">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>E2&gt;D2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3D36E-EEDC-48D8-A758-540DFF24A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08713E-DC3A-48CE-BD56-9EF44F9CB2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -91,6 +91,9 @@
     <t>윤병시</t>
   </si>
   <si>
+    <t>이미우</t>
+  </si>
+  <si>
     <t>임석봉</t>
   </si>
   <si>
@@ -100,10 +103,10 @@
     <t>정광훈2</t>
   </si>
   <si>
-    <t>정용태</t>
+    <t>정금례</t>
   </si>
   <si>
-    <t>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>정용태</t>
   </si>
   <si>
     <t>ks_statistics</t>
@@ -200,56 +203,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -622,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -924,14 +878,32 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.1625843442087609E-9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.2198825674594331E-9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-126.453014472855</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.2116542575761321</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>7.1784145640680152E-10</v>
@@ -955,7 +927,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>3.3144315801433842E-10</v>
@@ -979,7 +951,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>9.2133134415501066E-10</v>
@@ -1002,14 +974,32 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>5.5088135127686842E-9</v>
+      </c>
+      <c r="C17">
+        <v>1.1066684670646509E-8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-433.73322068842242</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.44789287791773302</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>2.7779415366213732E-9</v>
@@ -1017,66 +1007,18 @@
       <c r="C18">
         <v>2.5248927580102231E-9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>53.437589214803587</v>
       </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G18" s="1">
         <v>5.7687739161535433E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1042,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,8 +1056,8 @@
     <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="9" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="11" max="21" width="9" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1129,13 +1071,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1167,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F24" si="0">IF(E2&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="F2:F18" si="0">IF(E2&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="G2" s="2">
@@ -1177,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I24" si="1">IF(H2&lt;0.001, "&lt;0.001", H2)</f>
+        <f t="shared" ref="I2:I18" si="1">IF(H2&lt;0.001, "&lt;0.001", H2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="J2" s="2">
@@ -1525,18 +1467,42 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.160197391618603E-9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.2198825674594331E-9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.49999998990704569</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G13" s="2">
+        <v>-126.7724921670053</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-0.21144379331085211</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>7.1788291378982501E-10</v>
@@ -1570,7 +1536,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>3.317389332586476E-10</v>
@@ -1604,7 +1570,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>9.2469712612022644E-10</v>
@@ -1637,18 +1603,42 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>5.4934333881430913E-9</v>
+      </c>
+      <c r="C17">
+        <v>1.1066684670646509E-8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.49999998047851069</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="G17" s="2">
+        <v>-269.67400625376411</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-0.44814076002292053</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>2.778005927308149E-9</v>
@@ -1683,12 +1673,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B18">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1700,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1723,25 +1713,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1761,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C33" si="0">A2 &amp; "_" &amp; B2</f>
@@ -1802,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1843,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1884,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1925,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1966,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2008,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2049,7 +2039,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2090,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2131,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2172,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2213,7 +2203,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2254,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2295,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2336,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2377,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2418,7 +2408,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2459,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2500,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2541,7 +2531,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2582,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2623,7 +2613,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2664,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2705,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2746,7 +2736,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2787,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2828,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2869,7 +2859,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2910,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2951,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2992,7 +2982,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3033,7 +3023,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3074,7 +3064,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ref="C34:C65" si="3">A34 &amp; "_" &amp; B34</f>
@@ -3093,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f t="shared" ref="H34:H69" si="4">IF(G34&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="H34:H65" si="4">IF(G34&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I34" s="1">
@@ -3103,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f t="shared" ref="K34:K69" si="5">IF(J34&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" ref="K34:K65" si="5">IF(J34&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L34" s="1">
@@ -3115,7 +3105,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3156,7 +3146,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3197,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3238,7 +3228,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3279,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3320,7 +3310,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3361,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3402,7 +3392,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3443,7 +3433,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3484,7 +3474,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3525,7 +3515,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3562,79 +3552,175 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>_delta</v>
+        <v>이미우_delta</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4.160197391618603E-9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5.2198825674594331E-9</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.49999998990704569</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I46" s="1">
+        <v>-126.7724921670053</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
       <c r="K46" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L46" s="1">
+        <v>-0.21144379331085211</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>_theta</v>
+        <v>이미우_theta</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4.160197391618603E-9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5.2198825674594331E-9</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.49999998990704569</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I47" s="1">
+        <v>-126.7724921670053</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
       <c r="K47" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L47" s="1">
+        <v>-0.21144379331085211</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>_alpha</v>
+        <v>이미우_alpha</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.160197391618603E-9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5.2198825674594331E-9</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.49999998990704569</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I48" s="1">
+        <v>-126.7724921670053</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L48" s="1">
+        <v>-0.21144379331085211</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>_beta</v>
+        <v>이미우_beta</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4.160197391618603E-9</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5.2198825674594331E-9</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.49999998990704569</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I49" s="1">
+        <v>-126.7724921670053</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
       <c r="K49" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L49" s="1">
+        <v>-0.21144379331085211</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3672,10 +3758,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3713,10 +3799,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3754,10 +3840,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3795,10 +3881,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3836,10 +3922,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3877,10 +3963,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3918,10 +4004,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3959,10 +4045,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4000,10 +4086,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4041,10 +4127,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4082,10 +4168,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4122,82 +4208,178 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f t="shared" ref="C62:C69" si="6">A62 &amp; "_" &amp; B62</f>
-        <v>_delta</v>
+        <f t="shared" si="3"/>
+        <v>정금례_delta</v>
+      </c>
+      <c r="D62">
+        <v>5.4934333881430913E-9</v>
+      </c>
+      <c r="E62">
+        <v>1.1066684670646509E-8</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.49999998047851069</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I62" s="1">
+        <v>-269.67400625376411</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
       <c r="K62" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L62" s="1">
+        <v>-0.44814076002292053</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>_theta</v>
+        <f t="shared" si="3"/>
+        <v>정금례_theta</v>
+      </c>
+      <c r="D63">
+        <v>5.4934333881430913E-9</v>
+      </c>
+      <c r="E63">
+        <v>1.1066684670646509E-8</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.49999998047851069</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I63" s="1">
+        <v>-269.67400625376411</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
       <c r="K63" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L63" s="1">
+        <v>-0.44814076002292053</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>_alpha</v>
+        <f t="shared" si="3"/>
+        <v>정금례_alpha</v>
+      </c>
+      <c r="D64">
+        <v>5.4934333881430913E-9</v>
+      </c>
+      <c r="E64">
+        <v>1.1066684670646509E-8</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.49999998047851069</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I64" s="1">
+        <v>-269.67400625376411</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
       <c r="K64" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L64" s="1">
+        <v>-0.44814076002292053</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>_beta</v>
+        <f t="shared" si="3"/>
+        <v>정금례_beta</v>
+      </c>
+      <c r="D65">
+        <v>5.4934333881430913E-9</v>
+      </c>
+      <c r="E65">
+        <v>1.1066684670646509E-8</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.49999998047851069</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
       </c>
       <c r="H65" s="1" t="str">
         <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="I65" s="1">
+        <v>-269.67400625376411</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
       <c r="K65" s="1" t="str">
         <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
+      <c r="L65" s="1">
+        <v>-0.44814076002292053</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
       <c r="D66" s="1">
@@ -4213,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H66:H97" si="7">IF(G66&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I66" s="1">
@@ -4223,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K66:K97" si="8">IF(J66&lt;0.001, "&lt;0.001")</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L66" s="1">
@@ -4232,10 +4414,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4254,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I67" s="1">
@@ -4264,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L67" s="1">
@@ -4273,10 +4455,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4295,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I68" s="1">
@@ -4305,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L68" s="1">
@@ -4314,10 +4496,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4336,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I69" s="1">
@@ -4346,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L69" s="1">
@@ -4356,12 +4538,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D69">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D2&gt;E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E69">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>E2&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08713E-DC3A-48CE-BD56-9EF44F9CB2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F0CFA-E032-473E-9B3C-9B4874274E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -222,6 +222,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -579,7 +586,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,23 +625,23 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0526000000000001E-9</v>
+        <v>2.9856701682740209E-9</v>
       </c>
       <c r="C2" s="1">
-        <v>1.2846000000000001E-9</v>
+        <v>5.8917463494691601E-10</v>
       </c>
       <c r="D2" s="1">
-        <v>-47.823</v>
+        <v>2113.423707460468</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F26" si="0">IF(E2&lt;0.001, "&lt;0.001", E2)</f>
+        <f>IF(E2&lt;0.001, "&lt;0.001", E2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="G2" s="1">
-        <v>0.10397000000000001</v>
+        <v>3.5287718985050431</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -642,23 +649,23 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>3.5088009234061101E-10</v>
+        <v>3.2321818986935308E-10</v>
       </c>
       <c r="C3" s="1">
-        <v>3.4260792557732598E-10</v>
+        <v>2.864242017508925E-10</v>
       </c>
       <c r="D3" s="1">
-        <v>2.9443158432443099</v>
+        <v>198.14335270688201</v>
       </c>
       <c r="E3" s="1">
-        <v>3.23674719415265E-3</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>3.23674719415265E-3</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F17" si="0">IF(E3&lt;0.001, "&lt;0.001", E3)</f>
+        <v>&lt;0.001</v>
       </c>
       <c r="G3" s="1">
-        <v>-2.6386060392891201E-3</v>
+        <v>-2.638606039289124E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -666,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5452452637475298E-9</v>
+        <v>2.3140316437876431E-9</v>
       </c>
       <c r="C4" s="1">
         <v>3.0285707887462498E-9</v>
       </c>
       <c r="D4" s="1">
-        <v>-63.780924622158103</v>
+        <v>-129.50102993784901</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -682,7 +689,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="G4" s="1">
-        <v>-0.10630892488308399</v>
+        <v>-0.1063089248830849</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,23 +697,23 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>1.10914133658221E-9</v>
+        <v>1.0281009522432289E-9</v>
       </c>
       <c r="C5" s="1">
-        <v>1.14156245401172E-9</v>
+        <v>9.7983247488824426E-10</v>
       </c>
       <c r="D5" s="1">
-        <v>-7.5532186058878796</v>
+        <v>60.657914382868462</v>
       </c>
       <c r="E5" s="1">
-        <v>4.2489590273269699E-14</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
       <c r="G5" s="1">
-        <v>0.103966547926114</v>
+        <v>0.1039665479261144</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -714,13 +721,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>1.10297658507823E-9</v>
+        <v>3.1368679986872509E-10</v>
       </c>
       <c r="C6" s="1">
-        <v>3.3466908487452601E-9</v>
+        <v>1.9144775425667001E-10</v>
       </c>
       <c r="D6" s="1">
-        <v>-27.769562979409301</v>
+        <v>396.33771535715232</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -730,7 +737,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="G6" s="1">
-        <v>-5.2013028529325503E-2</v>
+        <v>-5.2013028529325551E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -738,23 +745,23 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>7.1377537863300999E-10</v>
+        <v>7.1377537863301051E-10</v>
       </c>
       <c r="C7" s="1">
-        <v>7.5981439895432805E-10</v>
+        <v>7.1549605398454529E-10</v>
       </c>
       <c r="D7" s="1">
-        <v>-36.080742166360103</v>
+        <v>-4.5168119771613062</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>6.2782623587262398E-6</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
       <c r="G7" s="1">
-        <v>-6.5029186722258894E-2</v>
+        <v>-6.5029186722258922E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -762,13 +769,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>6.2762156235543523E-10</v>
+        <v>6.2103029530642817E-10</v>
       </c>
       <c r="C8" s="1">
-        <v>6.4315604917213289E-10</v>
+        <v>6.4060191789331006E-10</v>
       </c>
       <c r="D8" s="1">
-        <v>-61.892372432651442</v>
+        <v>-91.423138109671854</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -786,13 +793,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>5.1203676420221334E-10</v>
+        <v>5.0987482005470857E-10</v>
       </c>
       <c r="C9" s="1">
-        <v>7.7764329381962589E-10</v>
+        <v>4.8287508313138433E-10</v>
       </c>
       <c r="D9" s="1">
-        <v>-39.920401040255463</v>
+        <v>122.7165977645148</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -813,13 +820,13 @@
         <v>1.6399011673345401E-9</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0062293245574859E-9</v>
+        <v>1.6545601381743279E-9</v>
       </c>
       <c r="D10" s="1">
-        <v>-51.048257679779773</v>
+        <v>-10.61498225648071</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>2.5443083583408051E-26</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -834,13 +841,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>4.3507701858264781E-10</v>
+        <v>4.3466332790072058E-10</v>
       </c>
       <c r="C11" s="1">
-        <v>4.1578772531666668E-10</v>
+        <v>4.0558271812288382E-10</v>
       </c>
       <c r="D11" s="1">
-        <v>60.932499956346632</v>
+        <v>106.9241148639575</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -858,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>1.154783202679103E-9</v>
+        <v>1.154865295248258E-9</v>
       </c>
       <c r="C12" s="1">
         <v>9.6672835543063999E-10</v>
       </c>
       <c r="D12" s="1">
-        <v>153.08644699273381</v>
+        <v>153.11311151416751</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -906,13 +913,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>7.1784145640680152E-10</v>
+        <v>6.9805562209525035E-10</v>
       </c>
       <c r="C14" s="1">
-        <v>4.7676305673191662E-10</v>
+        <v>4.7664689657334873E-10</v>
       </c>
       <c r="D14" s="1">
-        <v>614.81799315216165</v>
+        <v>916.3200194194568</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -930,13 +937,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>3.3144315801433842E-10</v>
+        <v>3.162541200580317E-10</v>
       </c>
       <c r="C15" s="1">
-        <v>3.0095878946026439E-10</v>
+        <v>2.6801272628550322E-10</v>
       </c>
       <c r="D15" s="1">
-        <v>36.172221073383866</v>
+        <v>328.01271804728498</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -954,13 +961,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>9.2133134415501066E-10</v>
+        <v>8.162927509730436E-10</v>
       </c>
       <c r="C16" s="1">
-        <v>8.0260391211412883E-10</v>
+        <v>6.567004725533029E-10</v>
       </c>
       <c r="D16" s="1">
-        <v>46.498359098826327</v>
+        <v>346.53499687400722</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -978,13 +985,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>5.5088135127686842E-9</v>
+        <v>2.738318790951909E-9</v>
       </c>
       <c r="C17">
-        <v>1.1066684670646509E-8</v>
+        <v>1.6922708225376211E-9</v>
       </c>
       <c r="D17" s="1">
-        <v>-433.73322068842242</v>
+        <v>681.36164090696786</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -994,42 +1001,28 @@
         <v>&lt;0.001</v>
       </c>
       <c r="G17" s="1">
-        <v>-0.44789287791773302</v>
+        <v>-1.542241186847834E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>2.7779415366213732E-9</v>
-      </c>
-      <c r="C18">
-        <v>2.5248927580102231E-9</v>
-      </c>
-      <c r="D18" s="1">
-        <v>53.437589214803587</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5.7687739161535433E-2</v>
-      </c>
+      <c r="C18"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B18">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1042,7 +1035,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1056,8 +1049,8 @@
     <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="9" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="11" max="28" width="9" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1096,82 +1089,82 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.9838E-9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5.8917000000000004E-10</v>
+      <c r="B2">
+        <v>2.983760502019613E-9</v>
+      </c>
+      <c r="C2">
+        <v>5.8917463494691601E-10</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5</v>
+        <v>0.49999999896645581</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F18" si="0">IF(E2&lt;0.001, "&lt;0.001")</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2027.4</v>
+        <f>IF(E2&lt;0.001, "&lt;0.001", E2)</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G2">
+        <v>2027.442551301722</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I18" si="1">IF(H2&lt;0.001, "&lt;0.001", H2)</f>
+        <f>IF(H2&lt;0.001, "&lt;0.001", H2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="J2" s="2">
-        <v>3.5230999999999999</v>
+        <v>3.523060049940379</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>3.5091998348161698E-10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.4200231694734398E-10</v>
+      <c r="B3">
+        <v>3.2294102449717752E-10</v>
+      </c>
+      <c r="C3">
+        <v>2.8482227749933719E-10</v>
       </c>
       <c r="D3" s="2">
-        <v>0.49999996909841299</v>
+        <v>0.49999999963452602</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-1.48363816940954</v>
+        <f t="shared" ref="F3:F17" si="0">IF(E3&lt;0.001, "&lt;0.001", E3)</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G3">
+        <v>-1.483638169409548</v>
       </c>
       <c r="H3" s="2">
-        <v>0.137905378502061</v>
+        <v>0.13790537850206189</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.137905378502061</v>
+        <f t="shared" ref="I3:I17" si="1">IF(H3&lt;0.001, "&lt;0.001", H3)</f>
+        <v>0.13790537850206189</v>
       </c>
       <c r="J3" s="2">
-        <v>-2.4790554467333499E-3</v>
+        <v>-2.479055446733353E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.54543586610095E-9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.0285707887462498E-9</v>
+      <c r="B4">
+        <v>2.3141587084006608E-9</v>
+      </c>
+      <c r="C4">
+        <v>3.007183423843392E-9</v>
       </c>
       <c r="D4" s="2">
-        <v>0.49999998215429797</v>
+        <v>0.49999998215429903</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1180,8 +1173,8 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G4" s="2">
-        <v>-67.175166146589106</v>
+      <c r="G4">
+        <v>-67.175166146589135</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1191,21 +1184,21 @@
         <v>&lt;0.001</v>
       </c>
       <c r="J4" s="2">
-        <v>-0.10625992980917399</v>
+        <v>-0.10625992980917411</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.11306580713227E-9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.1912247037030101E-9</v>
+      <c r="B5">
+        <v>1.009946723310065E-9</v>
+      </c>
+      <c r="C5">
+        <v>1.033377997884292E-9</v>
       </c>
       <c r="D5" s="2">
-        <v>0.49999996324251</v>
+        <v>0.49999999916535798</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1214,7 +1207,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>62.3644438215956</v>
       </c>
       <c r="H5" s="2">
@@ -1225,21 +1218,21 @@
         <v>&lt;0.001</v>
       </c>
       <c r="J5" s="2">
-        <v>0.103988974829825</v>
+        <v>0.10398897482982521</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.01322286269481E-9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.4052216727259801E-9</v>
+      <c r="B6">
+        <v>3.1911398744252752E-10</v>
+      </c>
+      <c r="C6">
+        <v>1.9597340229842149E-10</v>
       </c>
       <c r="D6" s="2">
-        <v>0.49999937776854397</v>
+        <v>0.49999999903275988</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1248,32 +1241,32 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G6" s="2">
-        <v>-31.1710954336694</v>
+      <c r="G6">
+        <v>-31.171095433669429</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>3.647333810442851E-213</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="J6" s="2">
-        <v>-5.2002088905102703E-2</v>
+        <v>-5.2002088905102752E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>7.1402915697320298E-10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.5981439895432805E-10</v>
+      <c r="B7">
+        <v>7.1423682929658882E-10</v>
+      </c>
+      <c r="C7">
+        <v>7.1549605398454529E-10</v>
       </c>
       <c r="D7" s="2">
-        <v>0.499999999577803</v>
+        <v>0.49999999957780361</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1282,7 +1275,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>-39.024569983680998</v>
       </c>
       <c r="H7" s="2">
@@ -1293,21 +1286,21 @@
         <v>&lt;0.001</v>
       </c>
       <c r="J7" s="2">
-        <v>-6.5025572608246401E-2</v>
+        <v>-6.5025572608246457E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
-        <v>6.2779282462777992E-10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.4364672244138906E-10</v>
+      <c r="B8">
+        <v>6.2199771329026501E-10</v>
+      </c>
+      <c r="C8">
+        <v>6.4090615637727996E-10</v>
       </c>
       <c r="D8" s="2">
-        <v>0.4999999983442347</v>
+        <v>0.49999999966487008</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1316,7 +1309,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>-52.57214814323887</v>
       </c>
       <c r="H8" s="2">
@@ -1334,14 +1327,14 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
-        <v>5.1379061983701989E-10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7.7764329381962589E-10</v>
+      <c r="B9">
+        <v>5.0831766495858203E-10</v>
+      </c>
+      <c r="C9">
+        <v>4.8314638187892973E-10</v>
       </c>
       <c r="D9" s="2">
-        <v>0.49999999928320599</v>
+        <v>0.49999999967697317</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1350,7 +1343,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>-90.932174928237032</v>
       </c>
       <c r="H9" s="2">
@@ -1368,11 +1361,11 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.667464388405001E-9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.0062293245574859E-9</v>
+      <c r="B10">
+        <v>1.677794322433448E-9</v>
+      </c>
+      <c r="C10">
+        <v>1.6545601381743279E-9</v>
       </c>
       <c r="D10" s="2">
         <v>0.49999999844812482</v>
@@ -1384,7 +1377,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>-116.8476790972572</v>
       </c>
       <c r="H10" s="2">
@@ -1402,14 +1395,14 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
-        <v>4.3469253069466698E-10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4.157699449883163E-10</v>
+      <c r="B11">
+        <v>4.3422146941614491E-10</v>
+      </c>
+      <c r="C11">
+        <v>4.054859779424835E-10</v>
       </c>
       <c r="D11" s="2">
-        <v>0.49999999956093272</v>
+        <v>0.49999999971530629</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1418,11 +1411,11 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>-27.638360279918999</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>4.7188568407171784E-168</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1436,11 +1429,11 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>1.1474190214195709E-9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9.6721134901531616E-10</v>
+      <c r="B12">
+        <v>1.147499730902006E-9</v>
+      </c>
+      <c r="C12">
+        <v>9.6707521648256079E-10</v>
       </c>
       <c r="D12" s="2">
         <v>0.49999999781286703</v>
@@ -1452,11 +1445,11 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>-4.5917774387547379</v>
       </c>
-      <c r="H12">
-        <v>4.3956109501851402E-6</v>
+      <c r="H12" s="2">
+        <v>4.3956109501851436E-6</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1470,10 +1463,10 @@
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>4.160197391618603E-9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>5.2198825674594331E-9</v>
       </c>
       <c r="D13" s="2">
@@ -1486,7 +1479,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>-126.7724921670053</v>
       </c>
       <c r="H13" s="2">
@@ -1504,11 +1497,11 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2">
-        <v>7.1788291378982501E-10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4.7677070646684614E-10</v>
+      <c r="B14">
+        <v>6.9756313733811319E-10</v>
+      </c>
+      <c r="C14">
+        <v>4.756988112541731E-10</v>
       </c>
       <c r="D14" s="2">
         <v>0.49999999976090831</v>
@@ -1520,7 +1513,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>620.43319791541558</v>
       </c>
       <c r="H14" s="2">
@@ -1538,14 +1531,14 @@
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
-        <v>3.317389332586476E-10</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3.0351757932991399E-10</v>
+      <c r="B15">
+        <v>3.1691744960275452E-10</v>
+      </c>
+      <c r="C15">
+        <v>2.693633681838757E-10</v>
       </c>
       <c r="D15" s="2">
-        <v>0.49999999248151489</v>
+        <v>0.49999999978950282</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1554,7 +1547,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>84.0378571305598</v>
       </c>
       <c r="H15" s="2">
@@ -1572,14 +1565,14 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
-        <v>9.2469712612022644E-10</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.1383985052547745E-10</v>
+      <c r="B16">
+        <v>8.2343422125205687E-10</v>
+      </c>
+      <c r="C16">
+        <v>6.6207945219429053E-10</v>
       </c>
       <c r="D16" s="2">
-        <v>0.49999998033193499</v>
+        <v>0.49999999898772091</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1588,7 +1581,7 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>84.623824897705362</v>
       </c>
       <c r="H16" s="2">
@@ -1607,13 +1600,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>5.4934333881430913E-9</v>
+        <v>2.763567033045088E-9</v>
       </c>
       <c r="C17">
-        <v>1.1066684670646509E-8</v>
+        <v>1.7179725172404741E-9</v>
       </c>
       <c r="D17" s="2">
-        <v>0.49999998047851069</v>
+        <v>0.49999999778382348</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1622,63 +1615,34 @@
         <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="G17" s="2">
-        <v>-269.67400625376411</v>
+      <c r="G17">
+        <v>-9.232652197891305</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>2.646948744290309E-20</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="J17" s="2">
-        <v>-0.44814076002292053</v>
+        <v>-1.5418417821990001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2">
-        <v>2.778005927308149E-9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.525554833677746E-9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.49999999933825329</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G18" s="2">
-        <v>34.61131680030028</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="J18" s="2">
-        <v>5.7699329070547957E-2</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B18">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1688,10 +1652,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1758,33 +1725,33 @@
         <v>고정실_delta</v>
       </c>
       <c r="D2" s="1">
-        <v>1.6948999999999998E-8</v>
+        <v>1.6948659266185291E-8</v>
       </c>
       <c r="E2" s="1">
-        <v>3.2218000000000002E-9</v>
+        <v>3.2217899363933759E-9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.5</v>
+        <v>0.49999999434539438</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H33" si="1">IF(G2&lt;0.001, "&lt;0.001")</f>
+        <f>IF(G2&lt;0.001, "&lt;0.001", G2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I2" s="1">
-        <v>2029.8</v>
+        <v>2029.8497727882259</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f t="shared" ref="K2:K33" si="2">IF(J2&lt;0.001, "&lt;0.001")</f>
+        <f>IF(J2&lt;0.001, "&lt;0.001", J2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L2" s="1">
-        <v>3.4843000000000002</v>
+        <v>3.484291898164753</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1799,33 +1766,33 @@
         <v>고정실_theta</v>
       </c>
       <c r="D3" s="1">
-        <v>5.5984E-9</v>
+        <v>5.5984024750848956E-9</v>
       </c>
       <c r="E3" s="1">
-        <v>9.8780999999999992E-10</v>
+        <v>9.8781260779850199E-10</v>
       </c>
       <c r="F3" s="1">
-        <v>0.5</v>
+        <v>0.49999999681153812</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H65" si="1">IF(G3&lt;0.001, "&lt;0.001", G3)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I3" s="1">
-        <v>1737.8</v>
+        <v>1737.764400919194</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K3:K65" si="2">IF(J3&lt;0.001, "&lt;0.001", J3)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L3" s="1">
-        <v>3.0402999999999998</v>
+        <v>3.0402839264796131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1840,13 +1807,13 @@
         <v>고정실_alpha</v>
       </c>
       <c r="D4" s="1">
-        <v>9.3243000000000006E-10</v>
+        <v>9.3243422624326917E-10</v>
       </c>
       <c r="E4" s="1">
-        <v>1.9801E-10</v>
+        <v>1.9800845295303101E-10</v>
       </c>
       <c r="F4" s="1">
-        <v>0.5</v>
+        <v>0.49999999921168781</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1856,7 +1823,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I4" s="1">
-        <v>1397.4</v>
+        <v>1397.4421462003411</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1866,7 +1833,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L4" s="1">
-        <v>2.4500999999999999</v>
+        <v>2.450085291710038</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1881,13 +1848,13 @@
         <v>고정실_beta</v>
       </c>
       <c r="D5" s="1">
-        <v>1.1335E-10</v>
+        <v>1.133476217760399E-10</v>
       </c>
       <c r="E5" s="1">
-        <v>6.5176000000000006E-11</v>
+        <v>6.5175860479774141E-11</v>
       </c>
       <c r="F5" s="1">
-        <v>0.5</v>
+        <v>0.49999999974713499</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1897,7 +1864,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I5" s="1">
-        <v>485.63</v>
+        <v>485.6331880082447</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1907,7 +1874,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.82789000000000001</v>
+        <v>0.82789063444279709</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1922,13 +1889,13 @@
         <v>김가람_delta</v>
       </c>
       <c r="D6" s="1">
-        <v>1.7613208039136001E-9</v>
+        <v>1.5511487679472159E-9</v>
       </c>
       <c r="E6" s="1">
-        <v>1.9233084465762502E-9</v>
+        <v>1.4986495286781709E-9</v>
       </c>
       <c r="F6" s="1">
-        <v>0.49999977046016197</v>
+        <v>0.49999999806485179</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1938,17 +1905,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I6" s="1">
-        <v>-7.7037414267048696</v>
+        <v>49.115725178111788</v>
       </c>
       <c r="J6" s="1">
-        <v>1.3230917955867601E-14</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L6" s="1">
-        <v>-1.2936540833875999E-2</v>
+        <v>8.4200752139014207E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1963,13 +1930,13 @@
         <v>김가람_theta</v>
       </c>
       <c r="D7" s="1">
-        <v>4.9233360331043203E-10</v>
+        <v>4.9193441472493142E-10</v>
       </c>
       <c r="E7" s="1">
-        <v>3.3396483648166099E-10</v>
+        <v>3.2633192334418159E-10</v>
       </c>
       <c r="F7" s="1">
-        <v>0.49999999386035598</v>
+        <v>0.49999999948216173</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1979,7 +1946,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I7" s="1">
-        <v>236.25367531420301</v>
+        <v>462.060877071834</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1989,7 +1956,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L7" s="1">
-        <v>0.398296651697569</v>
+        <v>0.7762681708387793</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -2005,13 +1972,13 @@
         <v>김가람_alpha</v>
       </c>
       <c r="D8" s="1">
-        <v>1.6577043884953599E-10</v>
+        <v>1.6587682226782419E-10</v>
       </c>
       <c r="E8" s="1">
-        <v>6.90843241832573E-11</v>
+        <v>6.8622825642325883E-11</v>
       </c>
       <c r="F8" s="1">
-        <v>0.499999999588775</v>
+        <v>0.49999999988511229</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2021,7 +1988,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I8" s="1">
-        <v>582.72728870497997</v>
+        <v>644.03168770180071</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2031,7 +1998,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L8" s="1">
-        <v>0.98138328787450402</v>
+        <v>1.085517958968778</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2046,13 +2013,13 @@
         <v>김가람_beta</v>
       </c>
       <c r="D9" s="1">
-        <v>6.8466161699290397E-11</v>
+        <v>6.8456926434875484E-11</v>
       </c>
       <c r="E9" s="1">
-        <v>7.4388049568272402E-11</v>
+        <v>7.4406516843699303E-11</v>
       </c>
       <c r="F9" s="1">
-        <v>0.49999999976227399</v>
+        <v>0.49999999976227488</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2062,7 +2029,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I9" s="1">
-        <v>-75.424873771989198</v>
+        <v>-75.970327838350784</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2072,7 +2039,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L9" s="1">
-        <v>-0.12556770325547401</v>
+        <v>-0.12676909373435921</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2087,13 +2054,13 @@
         <v>김득실_delta</v>
       </c>
       <c r="D10" s="1">
-        <v>9.6125853050896207E-9</v>
+        <v>8.589264563004678E-9</v>
       </c>
       <c r="E10" s="1">
-        <v>9.1101210828713203E-9</v>
+        <v>9.1131488116315951E-9</v>
       </c>
       <c r="F10" s="1">
-        <v>0.49999997748778802</v>
+        <v>0.49999997748778813</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -2103,7 +2070,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I10" s="1">
-        <v>16.404432456016501</v>
+        <v>-39.316108007944131</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2113,7 +2080,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L10" s="1">
-        <v>2.7259774316173099E-2</v>
+        <v>-6.5039052143284037E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2128,13 +2095,13 @@
         <v>김득실_theta</v>
       </c>
       <c r="D11" s="1">
-        <v>3.44986491663055E-9</v>
+        <v>3.3756578110263482E-9</v>
       </c>
       <c r="E11" s="1">
-        <v>4.2962934283198403E-9</v>
+        <v>4.2883408659020902E-9</v>
       </c>
       <c r="F11" s="1">
-        <v>0.49999999415045998</v>
+        <v>0.49999999415046009</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -2144,7 +2111,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I11" s="1">
-        <v>-193.73471091180801</v>
+        <v>-226.37829606436381</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2154,7 +2121,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L11" s="1">
-        <v>-0.30293267610750702</v>
+        <v>-0.3532349387120165</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2169,13 +2136,13 @@
         <v>김득실_alpha</v>
       </c>
       <c r="D12" s="1">
-        <v>1.73898652485384E-9</v>
+        <v>1.614518604251658E-9</v>
       </c>
       <c r="E12" s="1">
-        <v>2.5701539978724599E-9</v>
+        <v>2.5419970391234551E-9</v>
       </c>
       <c r="F12" s="1">
-        <v>0.49999998480267999</v>
+        <v>0.49999998480268038</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2185,7 +2152,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I12" s="1">
-        <v>-143.440071350084</v>
+        <v>-172.4900037270161</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2195,7 +2162,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L12" s="1">
-        <v>-0.21711705101277601</v>
+        <v>-0.2636865824283704</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2210,13 +2177,13 @@
         <v>김득실_beta</v>
       </c>
       <c r="D13" s="1">
-        <v>1.10128654535678E-9</v>
+        <v>9.8508045919443719E-10</v>
       </c>
       <c r="E13" s="1">
-        <v>1.6651987078903001E-9</v>
+        <v>1.6373343607972879E-9</v>
       </c>
       <c r="F13" s="1">
-        <v>0.49999997529783402</v>
+        <v>0.4999999762501518</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2226,7 +2193,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I13" s="1">
-        <v>-87.194955081027601</v>
+        <v>-107.57181480815601</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2236,7 +2203,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L13" s="1">
-        <v>-0.13845712204160701</v>
+        <v>-0.1729094351577373</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2251,13 +2218,13 @@
         <v>김영현_delta</v>
       </c>
       <c r="D14" s="1">
-        <v>7.0766767006557704E-9</v>
+        <v>6.3766113834040107E-9</v>
       </c>
       <c r="E14" s="1">
-        <v>7.2982179512395999E-9</v>
+        <v>6.4554932053544061E-9</v>
       </c>
       <c r="F14" s="1">
-        <v>0.49999982578172603</v>
+        <v>0.499999993948961</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2267,17 +2234,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I14" s="1">
-        <v>-8.3269336800928198</v>
+        <v>-9.7628128988163354</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1.632640338731743E-22</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L14" s="1">
-        <v>-1.4858752245634601E-2</v>
+        <v>-2.173519126302258E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2292,13 +2259,13 @@
         <v>김영현_theta</v>
       </c>
       <c r="D15" s="1">
-        <v>9.1781977470649695E-10</v>
+        <v>8.5317816085670302E-10</v>
       </c>
       <c r="E15" s="1">
-        <v>1.1534165251152801E-9</v>
+        <v>8.8319199181814402E-10</v>
       </c>
       <c r="F15" s="1">
-        <v>0.49999991086481899</v>
+        <v>0.49999999799684042</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2308,17 +2275,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I15" s="1">
-        <v>-30.223520842724199</v>
+        <v>-27.171453974409939</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1.807649841306777E-162</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L15" s="1">
-        <v>-5.3799329235794599E-2</v>
+        <v>-5.2418092714536423E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2333,13 +2300,13 @@
         <v>김영현_alpha</v>
       </c>
       <c r="D16" s="1">
-        <v>2.5298226563894E-10</v>
+        <v>2.398068002404966E-10</v>
       </c>
       <c r="E16" s="1">
-        <v>3.5991161718002402E-10</v>
+        <v>2.8343395010692751E-10</v>
       </c>
       <c r="F16" s="1">
-        <v>0.49999996461449597</v>
+        <v>0.49999999894427988</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -2349,7 +2316,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I16" s="1">
-        <v>-46.045127667810497</v>
+        <v>-103.1908626279461</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2359,7 +2326,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L16" s="1">
-        <v>-8.2060887758690595E-2</v>
+        <v>-0.20286070614781199</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2374,13 +2341,13 @@
         <v>김영현_beta</v>
       </c>
       <c r="D17" s="1">
-        <v>5.6353225287690197E-11</v>
+        <v>5.4140999467406E-11</v>
       </c>
       <c r="E17" s="1">
-        <v>7.3534497998862797E-11</v>
+        <v>5.8189585989955702E-11</v>
       </c>
       <c r="F17" s="1">
-        <v>0.49999999914227</v>
+        <v>0.4999999997040997</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -2390,7 +2357,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I17" s="1">
-        <v>-38.862676763988297</v>
+        <v>-52.777936481799998</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2400,7 +2367,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L17" s="1">
-        <v>-6.9180348365493305E-2</v>
+        <v>-0.1004664167727377</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2415,13 +2382,13 @@
         <v>김충연_delta</v>
       </c>
       <c r="D18" s="1">
-        <v>5.0204050936245697E-9</v>
+        <v>1.5073222492969501E-9</v>
       </c>
       <c r="E18" s="1">
-        <v>1.9885875884570599E-8</v>
+        <v>8.9618603562382684E-10</v>
       </c>
       <c r="F18" s="1">
-        <v>0.499998694035935</v>
+        <v>0.49999999287609681</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -2431,7 +2398,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I18" s="1">
-        <v>-35.829191083296003</v>
+        <v>275.9566779762298</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2441,7 +2408,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L18" s="1">
-        <v>-6.0987097083858001E-2</v>
+        <v>0.52409575325337832</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2456,13 +2423,13 @@
         <v>김충연_theta</v>
       </c>
       <c r="D19" s="1">
-        <v>1.65995376703507E-9</v>
+        <v>4.7110974724712241E-10</v>
       </c>
       <c r="E19" s="1">
-        <v>3.02138477319653E-9</v>
+        <v>2.6666749574167571E-10</v>
       </c>
       <c r="F19" s="1">
-        <v>0.49999879510774298</v>
+        <v>0.49999999896165959</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -2472,7 +2439,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I19" s="1">
-        <v>-11.388885204065</v>
+        <v>415.195083738405</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2482,7 +2449,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L19" s="1">
-        <v>-1.9376777440196599E-2</v>
+        <v>0.82031959229389873</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2497,13 +2464,13 @@
         <v>김충연_alpha</v>
       </c>
       <c r="D20" s="1">
-        <v>5.1416750756820198E-10</v>
+        <v>2.3236928370305891E-10</v>
       </c>
       <c r="E20" s="1">
-        <v>1.1999915602170799E-9</v>
+        <v>1.6968214909129711E-10</v>
       </c>
       <c r="F20" s="1">
-        <v>0.49999949215155998</v>
+        <v>0.49999999964852598</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2513,7 +2480,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I20" s="1">
-        <v>-12.249586183396501</v>
+        <v>269.47806608722141</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2523,7 +2490,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L20" s="1">
-        <v>-2.0837295343958201E-2</v>
+        <v>0.52633043324207229</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2538,13 +2505,13 @@
         <v>김충연_beta</v>
       </c>
       <c r="D21" s="1">
-        <v>1.84896253983189E-10</v>
+        <v>4.9615249353154568E-11</v>
       </c>
       <c r="E21" s="1">
-        <v>4.47015033671103E-10</v>
+        <v>3.3310146996185082E-11</v>
       </c>
       <c r="F21" s="1">
-        <v>0.49999956024065101</v>
+        <v>0.49999999969423647</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -2554,17 +2521,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I21" s="1">
-        <v>-8.8088866760100597</v>
+        <v>287.02654378165232</v>
       </c>
       <c r="J21" s="1">
-        <v>1.266774970336E-18</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L21" s="1">
-        <v>-1.4985439082963599E-2</v>
+        <v>0.53295385905589232</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2579,13 +2546,13 @@
         <v>민병춘1_delta</v>
       </c>
       <c r="D22" s="1">
-        <v>4.4751125028571404E-9</v>
+        <v>4.4766198305020797E-9</v>
       </c>
       <c r="E22" s="1">
-        <v>4.7684583336353497E-9</v>
+        <v>4.47480197165203E-9</v>
       </c>
       <c r="F22" s="1">
-        <v>0.49999999756908198</v>
+        <v>0.49999999756908248</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -2595,17 +2562,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I22" s="1">
-        <v>-33.494349162811801</v>
+        <v>0.84201830714020209</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;0.001</v>
+        <v>0.39977799149677751</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39977799149677751</v>
       </c>
       <c r="L22" s="1">
-        <v>-5.5606677644642701E-2</v>
+        <v>1.221530088368869E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,13 +2587,13 @@
         <v>민병춘1_theta</v>
       </c>
       <c r="D23" s="1">
-        <v>7.9796723501857504E-10</v>
+        <v>7.9841837150587E-10</v>
       </c>
       <c r="E23" s="1">
-        <v>8.4428173403819603E-10</v>
+        <v>8.1739653209241844E-10</v>
       </c>
       <c r="F23" s="1">
-        <v>0.499999998865854</v>
+        <v>0.49999999886585472</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -2636,17 +2603,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I23" s="1">
-        <v>-31.413977318130801</v>
+        <v>-35.636543530448932</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>6.743462829530546E-278</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L23" s="1">
-        <v>-5.2104172706581298E-2</v>
+        <v>-5.5455078517116327E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2661,13 +2628,13 @@
         <v>민병춘1_alpha</v>
       </c>
       <c r="D24" s="1">
-        <v>1.49759874161753E-10</v>
+        <v>1.498335654097763E-10</v>
       </c>
       <c r="E24" s="1">
-        <v>1.57600813982982E-10</v>
+        <v>1.499255754992986E-10</v>
       </c>
       <c r="F24" s="1">
-        <v>0.49999999947889201</v>
+        <v>0.49999999947889251</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -2677,17 +2644,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I24" s="1">
-        <v>-15.338398634867</v>
+        <v>-0.49957469325104931</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;0.001</v>
+        <v>0.61737473653426578</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61737473653426578</v>
       </c>
       <c r="L24" s="1">
-        <v>-2.5618270467528698E-2</v>
+        <v>-8.2270558686602297E-4</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2702,13 +2669,13 @@
         <v>민병춘1_beta</v>
       </c>
       <c r="D25" s="1">
-        <v>3.2415703720898997E-11</v>
+        <v>3.2353443061788311E-11</v>
       </c>
       <c r="E25" s="1">
-        <v>3.4143794323236099E-11</v>
+        <v>3.1872557133294739E-11</v>
       </c>
       <c r="F25" s="1">
-        <v>0.49999999962794001</v>
+        <v>0.49999999962794028</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -2718,17 +2685,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I25" s="1">
-        <v>-10.531627170313101</v>
+        <v>8.9738242111667788</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>2.8706904314203808E-19</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L25" s="1">
-        <v>-1.7587079769069501E-2</v>
+        <v>1.4841542437652851E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2743,13 +2710,13 @@
         <v>박주연1_delta</v>
       </c>
       <c r="D26" s="1">
-        <v>6.2779282462777992E-10</v>
+        <v>2.957912711585659E-9</v>
       </c>
       <c r="E26" s="1">
-        <v>6.4364672244138906E-10</v>
+        <v>2.9837232698884919E-9</v>
       </c>
       <c r="F26" s="1">
-        <v>0.4999999983442347</v>
+        <v>0.49999999746455931</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -2759,17 +2726,17 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I26" s="1">
-        <v>-52.57214814323887</v>
+        <v>-15.339923955312729</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>4.2214729807900654E-53</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L26" s="1">
-        <v>-8.8920433425720896E-2</v>
+        <v>-2.6986357866538861E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2784,13 +2751,13 @@
         <v>박주연1_theta</v>
       </c>
       <c r="D27" s="1">
-        <v>6.2779282462777992E-10</v>
+        <v>8.7491981405706592E-10</v>
       </c>
       <c r="E27" s="1">
-        <v>6.4364672244138906E-10</v>
+        <v>9.7300099948016533E-10</v>
       </c>
       <c r="F27" s="1">
-        <v>0.4999999983442347</v>
+        <v>0.49999999956713659</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -2800,7 +2767,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I27" s="1">
-        <v>-52.57214814323887</v>
+        <v>-266.38181111553138</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2810,7 +2777,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L27" s="1">
-        <v>-8.8920433425720896E-2</v>
+        <v>-0.44604873278733348</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2825,13 +2792,13 @@
         <v>박주연1_alpha</v>
       </c>
       <c r="D28" s="1">
-        <v>6.2779282462777992E-10</v>
+        <v>5.2505789577010378E-10</v>
       </c>
       <c r="E28" s="1">
-        <v>6.4364672244138906E-10</v>
+        <v>5.6015183802066815E-10</v>
       </c>
       <c r="F28" s="1">
-        <v>0.4999999983442347</v>
+        <v>0.49999999948150409</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -2841,7 +2808,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I28" s="1">
-        <v>-52.57214814323887</v>
+        <v>-103.75633926618551</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2851,7 +2818,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L28" s="1">
-        <v>-8.8920433425720896E-2</v>
+        <v>-0.17968887348594159</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2866,13 +2833,13 @@
         <v>박주연1_beta</v>
       </c>
       <c r="D29" s="1">
-        <v>6.2779282462777992E-10</v>
+        <v>8.5157484279723611E-11</v>
       </c>
       <c r="E29" s="1">
-        <v>6.4364672244138906E-10</v>
+        <v>7.8430097168854477E-11</v>
       </c>
       <c r="F29" s="1">
-        <v>0.4999999983442347</v>
+        <v>0.49999999991701438</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -2882,7 +2849,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I29" s="1">
-        <v>-52.57214814323887</v>
+        <v>132.55095773784461</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2892,7 +2859,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L29" s="1">
-        <v>-8.8920433425720896E-2</v>
+        <v>0.23404859419538629</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2907,13 +2874,13 @@
         <v>박주연2_delta</v>
       </c>
       <c r="D30" s="1">
-        <v>5.1379061983701989E-10</v>
+        <v>2.5331999724938052E-9</v>
       </c>
       <c r="E30" s="1">
-        <v>7.7764329381962589E-10</v>
+        <v>2.726604456549642E-9</v>
       </c>
       <c r="F30" s="1">
-        <v>0.49999999928320599</v>
+        <v>0.49999999729771027</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2923,7 +2890,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I30" s="1">
-        <v>-90.932174928237032</v>
+        <v>-121.75193173004131</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2933,7 +2900,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L30" s="1">
-        <v>-0.1514981811442693</v>
+        <v>-0.21467525779456631</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2948,13 +2915,13 @@
         <v>박주연2_theta</v>
       </c>
       <c r="D31" s="1">
-        <v>5.1379061983701989E-10</v>
+        <v>7.6942193718084292E-10</v>
       </c>
       <c r="E31" s="1">
-        <v>7.7764329381962589E-10</v>
+        <v>4.9376683392842351E-10</v>
       </c>
       <c r="F31" s="1">
-        <v>0.49999999928320599</v>
+        <v>0.49999999945074841</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -2964,7 +2931,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I31" s="1">
-        <v>-90.932174928237032</v>
+        <v>626.21244753983433</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -2974,7 +2941,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L31" s="1">
-        <v>-0.1514981811442693</v>
+        <v>1.219765982252051</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2989,13 +2956,13 @@
         <v>박주연2_alpha</v>
       </c>
       <c r="D32" s="1">
-        <v>5.1379061983701989E-10</v>
+        <v>3.8837921147048911E-10</v>
       </c>
       <c r="E32" s="1">
-        <v>7.7764329381962589E-10</v>
+        <v>2.5009487945340017E-10</v>
       </c>
       <c r="F32" s="1">
-        <v>0.49999999928320599</v>
+        <v>0.49999999959518621</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -3005,7 +2972,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I32" s="1">
-        <v>-90.932174928237032</v>
+        <v>451.14343529800522</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -3015,7 +2982,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L32" s="1">
-        <v>-0.1514981811442693</v>
+        <v>0.83328926629846267</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3030,13 +2997,13 @@
         <v>박주연2_beta</v>
       </c>
       <c r="D33" s="1">
-        <v>5.1379061983701989E-10</v>
+        <v>4.3026466212394411E-11</v>
       </c>
       <c r="E33" s="1">
-        <v>7.7764329381962589E-10</v>
+        <v>4.9461982724077852E-11</v>
       </c>
       <c r="F33" s="1">
-        <v>0.49999999928320599</v>
+        <v>0.49999999993286881</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -3046,7 +3013,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="I33" s="1">
-        <v>-90.932174928237032</v>
+        <v>-164.44869341371111</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -3056,7 +3023,7 @@
         <v>&lt;0.001</v>
       </c>
       <c r="L33" s="1">
-        <v>-0.1514981811442693</v>
+        <v>-0.30530145769171102</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3071,33 +3038,33 @@
         <v>벌_delta</v>
       </c>
       <c r="D34" s="1">
-        <v>1.667464388405001E-9</v>
+        <v>7.0294816393094467E-9</v>
       </c>
       <c r="E34" s="1">
-        <v>2.0062293245574859E-9</v>
+        <v>6.8860644019232357E-9</v>
       </c>
       <c r="F34" s="1">
-        <v>0.49999999844812482</v>
+        <v>0.4999999941626494</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f t="shared" ref="H34:H65" si="4">IF(G34&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I34" s="1">
-        <v>-116.8476790972572</v>
+        <v>35.872679008583219</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1.5042208118291931E-281</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f t="shared" ref="K34:K65" si="5">IF(J34&lt;0.001, "&lt;0.001")</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L34" s="1">
-        <v>-0.19501022550371461</v>
+        <v>6.1524922733868323E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3112,33 +3079,33 @@
         <v>벌_theta</v>
       </c>
       <c r="D35" s="1">
-        <v>1.667464388405001E-9</v>
+        <v>3.320867513096624E-9</v>
       </c>
       <c r="E35" s="1">
-        <v>2.0062293245574859E-9</v>
+        <v>3.2900074562543899E-9</v>
       </c>
       <c r="F35" s="1">
-        <v>0.49999999844812482</v>
+        <v>0.4999999943842337</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I35" s="1">
-        <v>-116.8476790972572</v>
+        <v>7.194469992921932</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>6.2768430821880564E-13</v>
       </c>
       <c r="K35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L35" s="1">
-        <v>-0.19501022550371461</v>
+        <v>1.237497154126109E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3153,33 +3120,33 @@
         <v>벌_alpha</v>
       </c>
       <c r="D36" s="1">
-        <v>1.667464388405001E-9</v>
+        <v>1.3264158768927191E-9</v>
       </c>
       <c r="E36" s="1">
-        <v>2.0062293245574859E-9</v>
+        <v>1.3422417879145911E-9</v>
       </c>
       <c r="F36" s="1">
-        <v>0.49999999844812482</v>
+        <v>0.49999999745101359</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I36" s="1">
-        <v>-116.8476790972572</v>
+        <v>-8.0794389773714723</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>6.5171206185923345E-16</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L36" s="1">
-        <v>-0.19501022550371461</v>
+        <v>-1.3964250190130281E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3194,33 +3161,33 @@
         <v>벌_beta</v>
       </c>
       <c r="D37" s="1">
-        <v>1.667464388405001E-9</v>
+        <v>2.9843367219133078E-10</v>
       </c>
       <c r="E37" s="1">
-        <v>2.0062293245574859E-9</v>
+        <v>2.9955017811974189E-10</v>
       </c>
       <c r="F37" s="1">
-        <v>0.49999999844812482</v>
+        <v>0.49999999930636391</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I37" s="1">
-        <v>-116.8476790972572</v>
+        <v>-2.234656935009911</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;0.001</v>
+        <v>2.5440205543760541E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5440205543760541E-2</v>
       </c>
       <c r="L37" s="1">
-        <v>-0.19501022550371461</v>
+        <v>-3.8491708940068909E-3</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3235,33 +3202,33 @@
         <v>안중훈_delta</v>
       </c>
       <c r="D38" s="1">
-        <v>4.3469253069466698E-10</v>
+        <v>2.4003207928744099E-9</v>
       </c>
       <c r="E38" s="1">
-        <v>4.157699449883163E-10</v>
+        <v>2.1722672440489789E-9</v>
       </c>
       <c r="F38" s="1">
-        <v>0.49999999956093272</v>
+        <v>0.49999999841291648</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I38" s="1">
-        <v>-27.638360279918999</v>
+        <v>179.72966187812199</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L38" s="1">
-        <v>-4.5846298564607847E-2</v>
+        <v>0.30556350070383592</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3276,33 +3243,33 @@
         <v>안중훈_theta</v>
       </c>
       <c r="D39" s="1">
-        <v>4.3469253069466698E-10</v>
+        <v>6.6988349413009543E-10</v>
       </c>
       <c r="E39" s="1">
-        <v>4.157699449883163E-10</v>
+        <v>6.6326068776731495E-10</v>
       </c>
       <c r="F39" s="1">
-        <v>0.49999999956093272</v>
+        <v>0.49999999914431859</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I39" s="1">
-        <v>-27.638360279918999</v>
+        <v>8.6167794402597035</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>6.9005381823702349E-18</v>
       </c>
       <c r="K39" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L39" s="1">
-        <v>-4.5846298564607847E-2</v>
+        <v>1.4529447056331709E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3317,33 +3284,33 @@
         <v>안중훈_alpha</v>
       </c>
       <c r="D40" s="1">
-        <v>4.3469253069466698E-10</v>
+        <v>1.734335321181121E-10</v>
       </c>
       <c r="E40" s="1">
-        <v>4.157699449883163E-10</v>
+        <v>1.7617755475842751E-10</v>
       </c>
       <c r="F40" s="1">
-        <v>0.49999999956093272</v>
+        <v>0.49999999964243952</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I40" s="1">
-        <v>-27.638360279918999</v>
+        <v>-10.02815130058195</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1.150733310522476E-23</v>
       </c>
       <c r="K40" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L40" s="1">
-        <v>-4.5846298564607847E-2</v>
+        <v>-1.698741242352932E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3358,33 +3325,33 @@
         <v>안중훈_beta</v>
       </c>
       <c r="D41" s="1">
-        <v>4.3469253069466698E-10</v>
+        <v>3.279953212625734E-11</v>
       </c>
       <c r="E41" s="1">
-        <v>4.157699449883163E-10</v>
+        <v>3.2218619000830887E-11</v>
       </c>
       <c r="F41" s="1">
-        <v>0.49999999956093272</v>
+        <v>0.49999999986716043</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I41" s="1">
-        <v>-27.638360279918999</v>
+        <v>9.6466482792900958</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>5.0952097453415866E-22</v>
       </c>
       <c r="K41" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L41" s="1">
-        <v>-4.5846298564607847E-2</v>
+        <v>1.6375809135198531E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3399,33 +3366,33 @@
         <v>윤병시_delta</v>
       </c>
       <c r="D42" s="1">
-        <v>1.1474190214195709E-9</v>
+        <v>5.4675628535995089E-9</v>
       </c>
       <c r="E42" s="1">
-        <v>9.6721134901531616E-10</v>
+        <v>4.7952677750943439E-9</v>
       </c>
       <c r="F42" s="1">
-        <v>0.49999999781286703</v>
+        <v>0.49999999204704021</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I42" s="1">
-        <v>-4.5917774387547379</v>
+        <v>96.37987977804643</v>
       </c>
       <c r="J42">
-        <v>4.3956109501851402E-6</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L42" s="1">
-        <v>-7.6306581966012893E-3</v>
+        <v>0.1597969042378776</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3440,33 +3407,33 @@
         <v>윤병시_theta</v>
       </c>
       <c r="D43" s="1">
-        <v>1.1474190214195709E-9</v>
+        <v>1.6133091456635481E-9</v>
       </c>
       <c r="E43" s="1">
-        <v>9.6721134901531616E-10</v>
+        <v>1.3181884943613669E-9</v>
       </c>
       <c r="F43" s="1">
-        <v>0.49999999781286703</v>
+        <v>0.49999999762091502</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I43" s="1">
-        <v>-4.5917774387547379</v>
+        <v>174.37456299281499</v>
       </c>
       <c r="J43">
-        <v>4.3956109501851402E-6</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L43" s="1">
-        <v>-7.6306581966012893E-3</v>
+        <v>0.28054941579227038</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3481,33 +3448,33 @@
         <v>윤병시_alpha</v>
       </c>
       <c r="D44" s="1">
-        <v>1.1474190214195709E-9</v>
+        <v>8.4659115224765086E-10</v>
       </c>
       <c r="E44" s="1">
-        <v>9.6721134901531616E-10</v>
+        <v>6.6467743430719723E-10</v>
       </c>
       <c r="F44" s="1">
-        <v>0.49999999781286703</v>
+        <v>0.49999999112644222</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I44" s="1">
-        <v>-4.5917774387547379</v>
+        <v>81.781405336245882</v>
       </c>
       <c r="J44">
-        <v>4.3956109501851402E-6</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L44" s="1">
-        <v>-7.6306581966012893E-3</v>
+        <v>0.13746975923311419</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3522,33 +3489,33 @@
         <v>윤병시_beta</v>
       </c>
       <c r="D45" s="1">
-        <v>1.1474190214195709E-9</v>
+        <v>2.0650295713417961E-10</v>
       </c>
       <c r="E45" s="1">
-        <v>9.6721134901531616E-10</v>
+        <v>1.510168747668457E-10</v>
       </c>
       <c r="F45" s="1">
-        <v>0.49999999781286703</v>
+        <v>0.49999999830112651</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I45" s="1">
-        <v>-4.5917774387547379</v>
+        <v>128.25520721354169</v>
       </c>
       <c r="J45">
-        <v>4.3956109501851402E-6</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L45" s="1">
-        <v>-7.6306581966012893E-3</v>
+        <v>0.21513926569549621</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3563,33 +3530,33 @@
         <v>이미우_delta</v>
       </c>
       <c r="D46" s="1">
-        <v>4.160197391618603E-9</v>
+        <v>1.385834877506368E-8</v>
       </c>
       <c r="E46" s="1">
-        <v>5.2198825674594331E-9</v>
+        <v>1.8868733502936499E-8</v>
       </c>
       <c r="F46" s="1">
-        <v>0.49999998990704569</v>
+        <v>0.49999997195671059</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I46" s="1">
-        <v>-126.7724921670053</v>
+        <v>-227.36899095693369</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L46" s="1">
-        <v>-0.21144379331085211</v>
+        <v>-0.38198954660498918</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3604,33 +3571,33 @@
         <v>이미우_theta</v>
       </c>
       <c r="D47" s="1">
-        <v>4.160197391618603E-9</v>
+        <v>1.262971305146227E-8</v>
       </c>
       <c r="E47" s="1">
-        <v>5.2198825674594331E-9</v>
+        <v>1.544289587925737E-8</v>
       </c>
       <c r="F47" s="1">
-        <v>0.49999998990704569</v>
+        <v>0.49999996652833723</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I47" s="1">
-        <v>-126.7724921670053</v>
+        <v>-99.950598167404237</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L47" s="1">
-        <v>-0.21144379331085211</v>
+        <v>-0.16706898228654399</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3645,33 +3612,33 @@
         <v>이미우_alpha</v>
       </c>
       <c r="D48" s="1">
-        <v>4.160197391618603E-9</v>
+        <v>4.1283315186345557E-9</v>
       </c>
       <c r="E48" s="1">
-        <v>5.2198825674594331E-9</v>
+        <v>4.6361067072978326E-9</v>
       </c>
       <c r="F48" s="1">
-        <v>0.49999998990704569</v>
+        <v>0.49999997538162039</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I48" s="1">
-        <v>-126.7724921670053</v>
+        <v>-36.431309581580372</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>2.514134913684658E-290</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L48" s="1">
-        <v>-0.21144379331085211</v>
+        <v>-6.07373081595243E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3686,33 +3653,33 @@
         <v>이미우_beta</v>
       </c>
       <c r="D49" s="1">
-        <v>4.160197391618603E-9</v>
+        <v>4.8774350762120396E-10</v>
       </c>
       <c r="E49" s="1">
-        <v>5.2198825674594331E-9</v>
+        <v>5.6480300360117296E-10</v>
       </c>
       <c r="F49" s="1">
-        <v>0.49999998990704569</v>
+        <v>0.49999999522867039</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I49" s="1">
-        <v>-126.7724921670053</v>
+        <v>-39.678997410505197</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
       </c>
       <c r="K49" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L49" s="1">
-        <v>-0.21144379331085211</v>
+        <v>-6.5934845312296805E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -3727,33 +3694,33 @@
         <v>임석봉_delta</v>
       </c>
       <c r="D50" s="1">
-        <v>7.1788291378982501E-10</v>
+        <v>4.0990725374526023E-9</v>
       </c>
       <c r="E50" s="1">
-        <v>4.7677070646684614E-10</v>
+        <v>2.5664189099692808E-9</v>
       </c>
       <c r="F50" s="1">
-        <v>0.49999999976090831</v>
+        <v>0.49999999900213199</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I50" s="1">
-        <v>620.43319791541558</v>
+        <v>997.00137992411317</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
       </c>
       <c r="K50" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L50" s="1">
-        <v>1.0256365759628669</v>
+        <v>1.826439677334925</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3768,33 +3735,33 @@
         <v>임석봉_theta</v>
       </c>
       <c r="D51" s="1">
-        <v>7.1788291378982501E-10</v>
+        <v>8.7206305526268345E-10</v>
       </c>
       <c r="E51" s="1">
-        <v>4.7677070646684614E-10</v>
+        <v>6.530174101853103E-10</v>
       </c>
       <c r="F51" s="1">
-        <v>0.49999999976090831</v>
+        <v>0.49999999914389331</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I51" s="1">
-        <v>620.43319791541558</v>
+        <v>340.20922662573088</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L51" s="1">
-        <v>1.0256365759628669</v>
+        <v>0.57257181052443329</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3809,33 +3776,33 @@
         <v>임석봉_alpha</v>
       </c>
       <c r="D52" s="1">
-        <v>7.1788291378982501E-10</v>
+        <v>2.6786044503680552E-10</v>
       </c>
       <c r="E52" s="1">
-        <v>4.7677070646684614E-10</v>
+        <v>2.7110232081005748E-10</v>
       </c>
       <c r="F52" s="1">
-        <v>0.49999999976090831</v>
+        <v>0.49999999934461059</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I52" s="1">
-        <v>620.43319791541558</v>
+        <v>-9.2949978084928357</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1.4760803171680491E-20</v>
       </c>
       <c r="K52" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L52" s="1">
-        <v>1.0256365759628669</v>
+        <v>-1.564302917890649E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3850,33 +3817,33 @@
         <v>임석봉_beta</v>
       </c>
       <c r="D53" s="1">
-        <v>7.1788291378982501E-10</v>
+        <v>3.9546465764418733E-11</v>
       </c>
       <c r="E53" s="1">
-        <v>4.7677070646684614E-10</v>
+        <v>3.8105104789247152E-11</v>
       </c>
       <c r="F53" s="1">
-        <v>0.49999999976090831</v>
+        <v>0.49999999982218368</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I53" s="1">
-        <v>620.43319791541558</v>
+        <v>29.18527213944154</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>3.8581546674807011E-187</v>
       </c>
       <c r="K53" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L53" s="1">
-        <v>1.0256365759628669</v>
+        <v>4.9106032550788797E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3891,33 +3858,33 @@
         <v>전창희_delta</v>
       </c>
       <c r="D54" s="1">
-        <v>3.317389332586476E-10</v>
+        <v>1.8731869650872169E-9</v>
       </c>
       <c r="E54" s="1">
-        <v>3.0351757932991399E-10</v>
+        <v>1.5097527596372441E-9</v>
       </c>
       <c r="F54" s="1">
-        <v>0.49999999248151489</v>
+        <v>0.49999999839246762</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I54" s="1">
-        <v>84.0378571305598</v>
+        <v>280.11689707044451</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
       </c>
       <c r="K54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L54" s="1">
-        <v>0.14020915087545521</v>
+        <v>0.54177041327502229</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -3932,33 +3899,33 @@
         <v>전창희_theta</v>
       </c>
       <c r="D55" s="1">
-        <v>3.317389332586476E-10</v>
+        <v>2.0542982899515281E-10</v>
       </c>
       <c r="E55" s="1">
-        <v>3.0351757932991399E-10</v>
+        <v>2.059881824010024E-10</v>
       </c>
       <c r="F55" s="1">
-        <v>0.49999999248151489</v>
+        <v>0.49999999978484028</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I55" s="1">
-        <v>84.0378571305598</v>
+        <v>-3.4813232741442981</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>4.9897680535986142E-4</v>
       </c>
       <c r="K55" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L55" s="1">
-        <v>0.14020915087545521</v>
+        <v>-6.1322620589606639E-3</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -3973,33 +3940,33 @@
         <v>전창희_alpha</v>
       </c>
       <c r="D56" s="1">
-        <v>3.317389332586476E-10</v>
+        <v>1.1942953437821419E-10</v>
       </c>
       <c r="E56" s="1">
-        <v>3.0351757932991399E-10</v>
+        <v>1.2451831733303241E-10</v>
       </c>
       <c r="F56" s="1">
-        <v>0.49999999248151489</v>
+        <v>0.49999999980484161</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I56" s="1">
-        <v>84.0378571305598</v>
+        <v>-45.643366618681071</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
       </c>
       <c r="K56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L56" s="1">
-        <v>0.14020915087545521</v>
+        <v>-8.050980308924291E-2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4014,33 +3981,33 @@
         <v>전창희_beta</v>
       </c>
       <c r="D57" s="1">
-        <v>3.317389332586476E-10</v>
+        <v>4.6232852526543231E-11</v>
       </c>
       <c r="E57" s="1">
-        <v>3.0351757932991399E-10</v>
+        <v>4.5004659628656039E-11</v>
       </c>
       <c r="F57" s="1">
-        <v>0.49999999248151489</v>
+        <v>0.49999999991936761</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I57" s="1">
-        <v>84.0378571305598</v>
+        <v>33.557458337267249</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1.1617487559436451E-246</v>
       </c>
       <c r="K57" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L57" s="1">
-        <v>0.14020915087545521</v>
+        <v>6.0757220978466232E-2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4055,33 +4022,33 @@
         <v>정광훈2_delta</v>
       </c>
       <c r="D58" s="1">
-        <v>9.2469712612022644E-10</v>
+        <v>4.3836656809944707E-9</v>
       </c>
       <c r="E58" s="1">
-        <v>8.1383985052547745E-10</v>
+        <v>3.2680284893512849E-9</v>
       </c>
       <c r="F58" s="1">
-        <v>0.49999998033193499</v>
+        <v>0.49999999535137257</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I58" s="1">
-        <v>84.623824897705362</v>
+        <v>365.55963910900999</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L58" s="1">
-        <v>0.14119236804840249</v>
+        <v>0.7142094570225036</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4096,33 +4063,33 @@
         <v>정광훈2_theta</v>
       </c>
       <c r="D59" s="1">
-        <v>9.2469712612022644E-10</v>
+        <v>1.2217518116334379E-9</v>
       </c>
       <c r="E59" s="1">
-        <v>8.1383985052547745E-10</v>
+        <v>8.4277308467538948E-10</v>
       </c>
       <c r="F59" s="1">
-        <v>0.49999998033193499</v>
+        <v>0.49999999765884939</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I59" s="1">
-        <v>84.623824897705362</v>
+        <v>306.50934967752403</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
       </c>
       <c r="K59" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L59" s="1">
-        <v>0.14119236804840249</v>
+        <v>0.59451904377676823</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4137,33 +4104,33 @@
         <v>정광훈2_alpha</v>
       </c>
       <c r="D60" s="1">
-        <v>9.2469712612022644E-10</v>
+        <v>4.5000476515146512E-10</v>
       </c>
       <c r="E60" s="1">
-        <v>8.1383985052547745E-10</v>
+        <v>4.3673870463943601E-10</v>
       </c>
       <c r="F60" s="1">
-        <v>0.49999998033193499</v>
+        <v>0.49999999909297671</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I60" s="1">
-        <v>84.623824897705362</v>
+        <v>31.919910524385841</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>2.3516918968920068E-223</v>
       </c>
       <c r="K60" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L60" s="1">
-        <v>0.14119236804840249</v>
+        <v>6.59834858989259E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -4178,33 +4145,33 @@
         <v>정광훈2_beta</v>
       </c>
       <c r="D61" s="1">
-        <v>9.2469712612022644E-10</v>
+        <v>8.3694535657741981E-11</v>
       </c>
       <c r="E61" s="1">
-        <v>8.1383985052547745E-10</v>
+        <v>1.2735795937570849E-10</v>
       </c>
       <c r="F61" s="1">
-        <v>0.49999998033193499</v>
+        <v>0.49999999933295841</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I61" s="1">
-        <v>84.623824897705362</v>
+        <v>-358.98728157260769</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
       </c>
       <c r="K61" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L61" s="1">
-        <v>0.14119236804840249</v>
+        <v>-0.74376793866099</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4219,33 +4186,33 @@
         <v>정금례_delta</v>
       </c>
       <c r="D62">
-        <v>5.4934333881430913E-9</v>
+        <v>1.290420536100525E-8</v>
       </c>
       <c r="E62">
-        <v>1.1066684670646509E-8</v>
+        <v>7.9244353059687601E-9</v>
       </c>
       <c r="F62" s="1">
-        <v>0.49999998047851069</v>
+        <v>0.49999999179660159</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I62" s="1">
-        <v>-269.67400625376411</v>
+        <v>727.32392526436138</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L62" s="1">
-        <v>-0.44814076002292053</v>
+        <v>1.300112083275726</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4260,33 +4227,33 @@
         <v>정금례_theta</v>
       </c>
       <c r="D63">
-        <v>5.4934333881430913E-9</v>
+        <v>5.6062468704092572E-9</v>
       </c>
       <c r="E63">
-        <v>1.1066684670646509E-8</v>
+        <v>3.0723286206232032E-9</v>
       </c>
       <c r="F63" s="1">
-        <v>0.49999998047851069</v>
+        <v>0.49999999398678341</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I63" s="1">
-        <v>-269.67400625376411</v>
+        <v>610.88177892229305</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L63" s="1">
-        <v>-0.44814076002292053</v>
+        <v>1.094514683761078</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -4301,33 +4268,33 @@
         <v>정금례_alpha</v>
       </c>
       <c r="D64">
-        <v>5.4934333881430913E-9</v>
+        <v>1.7823019186694041E-9</v>
       </c>
       <c r="E64">
-        <v>1.1066684670646509E-8</v>
+        <v>1.227793951341414E-9</v>
       </c>
       <c r="F64" s="1">
-        <v>0.49999998047851069</v>
+        <v>0.49999999662977168</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I64" s="1">
-        <v>-269.67400625376411</v>
+        <v>305.99408140937282</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
       </c>
       <c r="K64" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L64" s="1">
-        <v>-0.44814076002292053</v>
+        <v>0.54701538725825549</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4342,33 +4309,33 @@
         <v>정금례_beta</v>
       </c>
       <c r="D65">
-        <v>5.4934333881430913E-9</v>
+        <v>3.8097725588312592E-10</v>
       </c>
       <c r="E65">
-        <v>1.1066684670646509E-8</v>
+        <v>2.8843281625795258E-10</v>
       </c>
       <c r="F65" s="1">
-        <v>0.49999998047851069</v>
+        <v>0.49999999892370423</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I65" s="1">
-        <v>-269.67400625376411</v>
+        <v>203.0118859052302</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
       </c>
       <c r="K65" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L65" s="1">
-        <v>-0.44814076002292053</v>
+        <v>0.35790057414003701</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4379,38 +4346,18 @@
         <v>31</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
+        <f t="shared" ref="C66:C97" si="4">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
-      <c r="D66" s="1">
-        <v>2.778005927308149E-9</v>
-      </c>
-      <c r="E66" s="1">
-        <v>2.525554833677746E-9</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0.49999999933825329</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1" t="str">
-        <f t="shared" ref="H66:H97" si="7">IF(G66&lt;0.001, "&lt;0.001")</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I66" s="1">
-        <v>34.61131680030028</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1" t="str">
-        <f t="shared" ref="K66:K97" si="8">IF(J66&lt;0.001, "&lt;0.001")</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="L66" s="1">
-        <v>5.7699329070547957E-2</v>
-      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -4420,38 +4367,18 @@
         <v>32</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>정용태_theta</v>
       </c>
-      <c r="D67" s="1">
-        <v>2.778005927308149E-9</v>
-      </c>
-      <c r="E67" s="1">
-        <v>2.525554833677746E-9</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0.49999999933825329</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I67" s="1">
-        <v>34.61131680030028</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="L67" s="1">
-        <v>5.7699329070547957E-2</v>
-      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -4461,38 +4388,18 @@
         <v>33</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>정용태_alpha</v>
       </c>
-      <c r="D68" s="1">
-        <v>2.778005927308149E-9</v>
-      </c>
-      <c r="E68" s="1">
-        <v>2.525554833677746E-9</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0.49999999933825329</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I68" s="1">
-        <v>34.61131680030028</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="L68" s="1">
-        <v>5.7699329070547957E-2</v>
-      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -4502,51 +4409,89 @@
         <v>34</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>정용태_beta</v>
       </c>
-      <c r="D69" s="1">
-        <v>2.778005927308149E-9</v>
-      </c>
-      <c r="E69" s="1">
-        <v>2.525554833677746E-9</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0.49999999933825329</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="I69" s="1">
-        <v>34.61131680030028</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="L69" s="1">
-        <v>5.7699329070547957E-2</v>
-      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:L69">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW()-ROW($A$2), 8) &lt; 4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D69">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>D2&gt;E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E69">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>E2&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F0CFA-E032-473E-9B3C-9B4874274E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD894719-5137-42FB-B2CD-30F5E79CA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>정용태</t>
+  </si>
+  <si>
+    <t>이귀임</t>
+  </si>
+  <si>
+    <t>정복연</t>
   </si>
   <si>
     <t>ks_statistics</t>
@@ -203,7 +209,49 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -228,7 +276,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -583,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF(E2&lt;0.001, "&lt;0.001", E2)</f>
+        <f t="shared" ref="F2:F20" si="0">IF(E2&lt;0.001, "&lt;0.001", E2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="G2" s="1">
@@ -661,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F17" si="0">IF(E3&lt;0.001, "&lt;0.001", E3)</f>
+        <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
       <c r="G3" s="1">
@@ -1008,21 +1063,83 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18">
+        <v>2.6125009216670859E-9</v>
+      </c>
+      <c r="C18">
+        <v>2.5248927580102231E-9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>202.3709226793959</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.7687739161535433E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>5.0317263725717549E-10</v>
+      </c>
+      <c r="C19">
+        <v>3.9086174820360858E-10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>251.11809774077619</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G19">
+        <v>0.39703289673814429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1.1826569531166E-9</v>
+      </c>
+      <c r="C20">
+        <v>1.576116665232615E-9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-394.40769874084941</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G20">
+        <v>-0.168745818095385</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B18">
-    <cfRule type="expression" dxfId="6" priority="2">
+  <conditionalFormatting sqref="B2:B30">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1032,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1049,8 +1166,8 @@
     <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="28" width="9" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="11" max="29" width="9" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,13 +1181,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1102,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>IF(E2&lt;0.001, "&lt;0.001", E2)</f>
+        <f t="shared" ref="F2:F20" si="0">IF(E2&lt;0.001, "&lt;0.001", E2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="G2">
@@ -1112,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>IF(H2&lt;0.001, "&lt;0.001", H2)</f>
+        <f t="shared" ref="I2:I20" si="1">IF(H2&lt;0.001, "&lt;0.001", H2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="J2" s="2">
@@ -1136,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F17" si="0">IF(E3&lt;0.001, "&lt;0.001", E3)</f>
+        <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
       <c r="G3">
@@ -1146,7 +1263,7 @@
         <v>0.13790537850206189</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I17" si="1">IF(H3&lt;0.001, "&lt;0.001", H3)</f>
+        <f t="shared" si="1"/>
         <v>0.13790537850206189</v>
       </c>
       <c r="J3" s="2">
@@ -1633,16 +1750,113 @@
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B18">
+        <v>2.6125187904985279E-9</v>
+      </c>
+      <c r="C18">
+        <v>2.5251339724993519E-9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.49999999933825329</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G18">
+        <v>34.61131680030028</v>
+      </c>
+      <c r="H18">
+        <v>2.8110817849373358E-262</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J18">
+        <v>5.7699329070547957E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>4.9796637285517007E-10</v>
+      </c>
+      <c r="C19">
+        <v>3.9086174820360858E-10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.49999999964276581</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G19">
+        <v>248.2586376764483</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J19">
+        <v>0.39727998161935291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1.2048396393298139E-9</v>
+      </c>
+      <c r="C20">
+        <v>1.550525281766581E-9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.49999999891676589</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G20">
+        <v>-101.15560022340669</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J20">
+        <v>-0.16873424374868001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B18">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="B2:B30">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1658,7 +1872,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1680,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1718,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C33" si="0">A2 &amp; "_" &amp; B2</f>
@@ -1737,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF(G2&lt;0.001, "&lt;0.001", G2)</f>
+        <f t="shared" ref="H2:H33" si="1">IF(G2&lt;0.001, "&lt;0.001", G2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I2" s="1">
@@ -1747,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f>IF(J2&lt;0.001, "&lt;0.001", J2)</f>
+        <f t="shared" ref="K2:K33" si="2">IF(J2&lt;0.001, "&lt;0.001", J2)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L2" s="1">
@@ -1759,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1778,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H65" si="1">IF(G3&lt;0.001, "&lt;0.001", G3)</f>
+        <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I3" s="1">
@@ -1788,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K65" si="2">IF(J3&lt;0.001, "&lt;0.001", J3)</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L3" s="1">
@@ -1800,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1841,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1882,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1923,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1965,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2006,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2047,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2088,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2129,7 +2343,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2170,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2211,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2252,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2293,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2334,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2375,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2416,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2457,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2498,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2539,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2580,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2621,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2662,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2703,7 +2917,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2744,7 +2958,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2826,7 +3040,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2867,7 +3081,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2908,7 +3122,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2949,7 +3163,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2990,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3031,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ref="C34:C65" si="3">A34 &amp; "_" &amp; B34</f>
@@ -3050,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H34:H65" si="4">IF(G34&lt;0.001, "&lt;0.001", G34)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I34" s="1">
@@ -3060,7 +3274,7 @@
         <v>1.5042208118291931E-281</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K34:K65" si="5">IF(J34&lt;0.001, "&lt;0.001", J34)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L34" s="1">
@@ -3072,7 +3286,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3091,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I35" s="1">
@@ -3101,7 +3315,7 @@
         <v>6.2768430821880564E-13</v>
       </c>
       <c r="K35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L35" s="1">
@@ -3113,7 +3327,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3132,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I36" s="1">
@@ -3142,7 +3356,7 @@
         <v>6.5171206185923345E-16</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L36" s="1">
@@ -3154,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3173,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I37" s="1">
@@ -3183,7 +3397,7 @@
         <v>2.5440205543760541E-2</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.5440205543760541E-2</v>
       </c>
       <c r="L37" s="1">
@@ -3195,7 +3409,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3214,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I38" s="1">
@@ -3224,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L38" s="1">
@@ -3236,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3255,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I39" s="1">
@@ -3265,7 +3479,7 @@
         <v>6.9005381823702349E-18</v>
       </c>
       <c r="K39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L39" s="1">
@@ -3277,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3296,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I40" s="1">
@@ -3306,7 +3520,7 @@
         <v>1.150733310522476E-23</v>
       </c>
       <c r="K40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L40" s="1">
@@ -3318,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3337,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I41" s="1">
@@ -3347,7 +3561,7 @@
         <v>5.0952097453415866E-22</v>
       </c>
       <c r="K41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L41" s="1">
@@ -3359,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3378,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I42" s="1">
@@ -3388,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L42" s="1">
@@ -3400,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3419,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I43" s="1">
@@ -3429,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L43" s="1">
@@ -3441,7 +3655,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3460,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I44" s="1">
@@ -3470,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L44" s="1">
@@ -3482,7 +3696,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3501,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I45" s="1">
@@ -3511,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L45" s="1">
@@ -3523,7 +3737,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3542,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I46" s="1">
@@ -3552,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L46" s="1">
@@ -3564,7 +3778,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3583,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I47" s="1">
@@ -3593,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L47" s="1">
@@ -3605,7 +3819,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3624,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I48" s="1">
@@ -3634,7 +3848,7 @@
         <v>2.514134913684658E-290</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L48" s="1">
@@ -3646,7 +3860,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3665,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I49" s="1">
@@ -3675,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L49" s="1">
@@ -3687,7 +3901,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3706,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I50" s="1">
@@ -3716,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L50" s="1">
@@ -3728,7 +3942,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3747,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I51" s="1">
@@ -3757,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L51" s="1">
@@ -3769,7 +3983,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3788,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I52" s="1">
@@ -3798,7 +4012,7 @@
         <v>1.4760803171680491E-20</v>
       </c>
       <c r="K52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L52" s="1">
@@ -3810,7 +4024,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3829,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I53" s="1">
@@ -3839,7 +4053,7 @@
         <v>3.8581546674807011E-187</v>
       </c>
       <c r="K53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L53" s="1">
@@ -3851,7 +4065,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3870,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I54" s="1">
@@ -3880,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L54" s="1">
@@ -3892,7 +4106,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3911,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I55" s="1">
@@ -3921,7 +4135,7 @@
         <v>4.9897680535986142E-4</v>
       </c>
       <c r="K55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L55" s="1">
@@ -3933,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3952,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I56" s="1">
@@ -3962,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L56" s="1">
@@ -3974,7 +4188,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3993,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I57" s="1">
@@ -4003,7 +4217,7 @@
         <v>1.1617487559436451E-246</v>
       </c>
       <c r="K57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L57" s="1">
@@ -4015,7 +4229,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4034,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I58" s="1">
@@ -4044,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L58" s="1">
@@ -4056,7 +4270,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4075,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I59" s="1">
@@ -4085,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L59" s="1">
@@ -4097,7 +4311,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4116,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I60" s="1">
@@ -4126,7 +4340,7 @@
         <v>2.3516918968920068E-223</v>
       </c>
       <c r="K60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L60" s="1">
@@ -4138,7 +4352,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4157,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I61" s="1">
@@ -4167,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L61" s="1">
@@ -4179,7 +4393,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4198,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I62" s="1">
@@ -4208,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L62" s="1">
@@ -4220,7 +4434,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4239,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I63" s="1">
@@ -4249,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L63" s="1">
@@ -4261,7 +4475,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4280,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I64" s="1">
@@ -4290,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L64" s="1">
@@ -4302,7 +4516,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4321,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>&lt;0.001</v>
       </c>
       <c r="I65" s="1">
@@ -4331,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>&lt;0.001</v>
       </c>
       <c r="L65" s="1">
@@ -4343,84 +4557,404 @@
         <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C97" si="4">A66 &amp; "_" &amp; B66</f>
+        <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="D66" s="1">
+        <v>1.936086831870973E-8</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1.870377146015622E-8</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.49999999502877901</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="I66" s="1">
+        <v>191.2913905297689</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
       <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="L66" s="1">
+        <v>0.32396146657301822</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>정용태_theta</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="D67" s="1">
+        <v>2.223722809665728E-10</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2.080238374507423E-10</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.49999999959669422</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="I67" s="1">
+        <v>56.576297164719243</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
       <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="L67" s="1">
+        <v>9.5334343473295322E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>정용태_alpha</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="D68" s="1">
+        <v>3.8812205945325959E-11</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3.6493533264723573E-11</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.49999999988511468</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="I68" s="1">
+        <v>57.947435099278337</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
       <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="L68" s="1">
+        <v>9.7293451080590898E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정용태_beta</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.828608404655799E-11</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.7781646648820939E-11</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.49999999986173899</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1">
+        <v>18.825589204499849</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4.8780367063216097E-79</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1">
+        <v>3.1627888380807469E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>이귀임_delta</v>
+      </c>
+      <c r="D70">
+        <v>3.1960869916456091E-9</v>
+      </c>
+      <c r="E70">
+        <v>2.653056152761104E-9</v>
+      </c>
+      <c r="F70">
+        <v>0.49999999751490393</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>223.70339417669729</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0.36061707543724392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>정용태_beta</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>이귀임_theta</v>
+      </c>
+      <c r="D71">
+        <v>4.005861671903257E-10</v>
+      </c>
+      <c r="E71">
+        <v>2.6941088884539518E-10</v>
+      </c>
+      <c r="F71">
+        <v>0.49999999919586491</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>174.46980214718559</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0.29257465672069582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>이귀임_alpha</v>
+      </c>
+      <c r="D72">
+        <v>1.061826575039894E-10</v>
+      </c>
+      <c r="E72">
+        <v>4.814338870863264E-11</v>
+      </c>
+      <c r="F72">
+        <v>0.49999999983564741</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>88.385128828126909</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0.14882589148328559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>이귀임_beta</v>
+      </c>
+      <c r="D73">
+        <v>3.9236269471324272E-11</v>
+      </c>
+      <c r="E73">
+        <v>1.719705508197394E-11</v>
+      </c>
+      <c r="F73">
+        <v>0.49999999984146681</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>148.72565960692259</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0.25049412383913677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정복연_delta</v>
+      </c>
+      <c r="D74">
+        <v>5.1892848483268609E-9</v>
+      </c>
+      <c r="E74">
+        <v>7.2005940516291056E-9</v>
+      </c>
+      <c r="F74">
+        <v>0.49999999587439081</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>-460.39268826970721</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>-0.86990309677248778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정복연_theta</v>
+      </c>
+      <c r="D75">
+        <v>2.4434578037779459E-9</v>
+      </c>
+      <c r="E75">
+        <v>3.1332671309676141E-9</v>
+      </c>
+      <c r="F75">
+        <v>0.49999999633374431</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>-226.22758611625909</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-0.4225309156813965</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정복연_alpha</v>
+      </c>
+      <c r="D76">
+        <v>9.1063925719343458E-10</v>
+      </c>
+      <c r="E76">
+        <v>1.0474196665780829E-9</v>
+      </c>
+      <c r="F76">
+        <v>0.499999997793245</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>-82.935945810340144</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>-0.15801672035118791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정복연_beta</v>
+      </c>
+      <c r="D77">
+        <v>1.9305583985734131E-10</v>
+      </c>
+      <c r="E77">
+        <v>1.7828238448065789E-10</v>
+      </c>
+      <c r="F77">
+        <v>0.49999999922002769</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>41.422500088602114</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>7.8851015153688378E-2</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -4476,18 +5010,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L69">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A2:L100">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(ROW()-ROW($A$2), 8) &lt; 4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D69">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="D2:D100">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2&gt;E2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E69">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="E2:E100">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>E2&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD894719-5137-42FB-B2CD-30F5E79CA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79BA8C1-FBD0-4F39-A3EE-DD8E061FC4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>정복연</t>
+  </si>
+  <si>
+    <t>김정한</t>
+  </si>
+  <si>
+    <t>정광훈1</t>
+  </si>
+  <si>
+    <t>조진욱</t>
   </si>
   <si>
     <t>ks_statistics</t>
@@ -209,7 +218,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -228,55 +237,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -638,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
@@ -1131,15 +1091,75 @@
         <v>-0.168745818095385</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.8367362148927941E-9</v>
+      </c>
+      <c r="C21">
+        <v>2.6575922393293259E-9</v>
+      </c>
+      <c r="D21">
+        <v>188.12730958002331</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-4.0906268368790369E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>4.5586418654938311E-10</v>
+      </c>
+      <c r="C22">
+        <v>4.3824007593435872E-10</v>
+      </c>
+      <c r="D22">
+        <v>60.716984964923597</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>-0.10694663763547919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>4.135283727685945E-10</v>
+      </c>
+      <c r="C23">
+        <v>3.7989881276405961E-10</v>
+      </c>
+      <c r="D23">
+        <v>221.60928845199999</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.1463552331965626</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1149,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1166,8 +1186,8 @@
     <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="29" width="9" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="2"/>
+    <col min="11" max="32" width="9" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1181,13 +1201,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1848,15 +1868,93 @@
         <v>-0.16873424374868001</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.836676068185556E-9</v>
+      </c>
+      <c r="C21">
+        <v>2.655808342734484E-9</v>
+      </c>
+      <c r="D21">
+        <v>0.49999999877156559</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-24.66176298264314</v>
+      </c>
+      <c r="H21">
+        <v>3.1307403906249451E-134</v>
+      </c>
+      <c r="J21">
+        <v>-4.1042668652413718E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>4.5770582874988101E-10</v>
+      </c>
+      <c r="C22">
+        <v>4.3882078821374089E-10</v>
+      </c>
+      <c r="D22">
+        <v>0.49999999967059372</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>-64.123156252709208</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>-0.10693596138955511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>4.1166308391947541E-10</v>
+      </c>
+      <c r="C23">
+        <v>3.8021578228981412E-10</v>
+      </c>
+      <c r="D23">
+        <v>0.49999999980358972</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>87.818563511242502</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.1463851578030877</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1866,13 +1964,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1894,25 +1992,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1932,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C33" si="0">A2 &amp; "_" &amp; B2</f>
@@ -1973,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2014,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2096,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2137,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2179,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2220,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2261,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2302,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2343,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2384,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2425,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2466,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2507,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2548,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2589,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2630,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2671,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2712,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2753,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2794,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2835,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2876,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2917,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2958,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2999,7 +3097,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3040,7 +3138,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3081,7 +3179,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3122,7 +3220,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3163,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3204,7 +3302,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3245,7 +3343,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ref="C34:C65" si="3">A34 &amp; "_" &amp; B34</f>
@@ -3286,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3327,7 +3425,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3368,7 +3466,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3409,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3450,7 +3548,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3491,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3532,7 +3630,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3573,7 +3671,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3614,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3655,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3696,7 +3794,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3737,7 +3835,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3778,7 +3876,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3819,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3860,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3901,7 +3999,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3942,7 +4040,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3983,7 +4081,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4024,7 +4122,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4065,7 +4163,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4106,7 +4204,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4147,7 +4245,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4188,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4229,7 +4327,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4270,7 +4368,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4311,7 +4409,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4352,7 +4450,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4393,7 +4491,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4434,7 +4532,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4475,7 +4573,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4516,7 +4614,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4557,7 +4655,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
@@ -4592,7 +4690,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4627,7 +4725,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4662,7 +4760,7 @@
         <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4697,7 +4795,7 @@
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4730,7 +4828,7 @@
         <v>24</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4763,7 +4861,7 @@
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4796,7 +4894,7 @@
         <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4829,7 +4927,7 @@
         <v>25</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4862,7 +4960,7 @@
         <v>25</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4895,7 +4993,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4928,7 +5026,7 @@
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4957,71 +5055,423 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>김정한_delta</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.6830112221784521E-8</v>
+      </c>
+      <c r="E78">
+        <v>1.5651181901659979E-8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.49999999320344091</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="I78" s="1">
+        <v>200.9691696219644</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
       <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="L78" s="1">
+        <v>0.35596375828379689</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>김정한_theta</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3.4936648869475441E-9</v>
+      </c>
+      <c r="E79">
+        <v>3.345091816168635E-9</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.49999999679732637</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="I79" s="1">
+        <v>64.231241013651498</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
       <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="L79" s="1">
+        <v>0.1155368463174674</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>김정한_alpha</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9.8435507660856001E-10</v>
+      </c>
+      <c r="E80">
+        <v>9.5435722182247247E-10</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.49999999856108351</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="I80" s="1">
+        <v>34.551977395149812</v>
+      </c>
+      <c r="J80" s="1">
+        <v>2.3650169147079531E-261</v>
+      </c>
       <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="L80" s="1">
+        <v>6.1823648286173212E-2</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>김정한_beta</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.4791874829998529E-10</v>
+      </c>
+      <c r="E81">
+        <v>1.3779886729131841E-10</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.49999999958356178</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="I81" s="1">
+        <v>66.498233713850723</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
       <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="L81" s="1">
+        <v>0.11814498880963251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정광훈1_delta</v>
+      </c>
+      <c r="D82">
+        <v>2.2639962376916849E-9</v>
+      </c>
+      <c r="E82">
+        <v>2.160531988919055E-9</v>
+      </c>
+      <c r="F82">
+        <v>0.49999999824155911</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>77.43459558222699</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0.1434360910777111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정광훈1_theta</v>
+      </c>
+      <c r="D83">
+        <v>7.2364344452427358E-10</v>
+      </c>
+      <c r="E83">
+        <v>6.9912730713213054E-10</v>
+      </c>
+      <c r="F83">
+        <v>0.49999999918759358</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>31.370953643788489</v>
+      </c>
+      <c r="J83">
+        <v>7.6123519412037188E-216</v>
+      </c>
+      <c r="L83">
+        <v>5.8477283250311277E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정광훈1_alpha</v>
+      </c>
+      <c r="D84">
+        <v>2.7124503192538618E-10</v>
+      </c>
+      <c r="E84">
+        <v>2.6509808691610862E-10</v>
+      </c>
+      <c r="F84">
+        <v>0.49999999958211477</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>16.95496674348097</v>
+      </c>
+      <c r="J84">
+        <v>1.8323307414096089E-64</v>
+      </c>
+      <c r="L84">
+        <v>3.1592293872338403E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>정광훈1_beta</v>
+      </c>
+      <c r="D85">
+        <v>7.2946339690017786E-11</v>
+      </c>
+      <c r="E85">
+        <v>7.0997322911908715E-11</v>
+      </c>
+      <c r="F85">
+        <v>0.49999999983538829</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>22.705111937405029</v>
+      </c>
+      <c r="J85">
+        <v>4.4672732675806818E-114</v>
+      </c>
+      <c r="L85">
+        <v>4.2409175620367827E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" ref="C86:C89" si="7">A86 &amp; "_" &amp; B86</f>
+        <v>조진욱_delta</v>
+      </c>
+      <c r="D86">
+        <v>1.9017279229232009E-9</v>
+      </c>
+      <c r="E86">
+        <v>1.6620431099208669E-9</v>
+      </c>
+      <c r="F86">
+        <v>0.49999999879650048</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>299.36475449504582</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0.56759738593591025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>조진욱_theta</v>
+      </c>
+      <c r="D87">
+        <v>5.1838266265654801E-10</v>
+      </c>
+      <c r="E87">
+        <v>5.0322963470205322E-10</v>
+      </c>
+      <c r="F87">
+        <v>0.49999999960513453</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>41.177603926186862</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>8.0326835883609074E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>조진욱_alpha</v>
+      </c>
+      <c r="D88">
+        <v>3.5677641358326392E-10</v>
+      </c>
+      <c r="E88">
+        <v>3.7240889968771639E-10</v>
+      </c>
+      <c r="F88">
+        <v>0.49999999954490881</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>-51.215861837308438</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>-9.667807608591536E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>조진욱_beta</v>
+      </c>
+      <c r="D89">
+        <v>7.7866268804302441E-11</v>
+      </c>
+      <c r="E89">
+        <v>7.542236955549318E-11</v>
+      </c>
+      <c r="F89">
+        <v>0.49999999986177279</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>31.103862023372699</v>
+      </c>
+      <c r="J89">
+        <v>3.2213679794286219E-212</v>
+      </c>
+      <c r="L89">
+        <v>5.8698655931462937E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:L100">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW()-ROW($A$2), 8) &lt; 4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D100">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D2&gt;E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E100">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>E2&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79BA8C1-FBD0-4F39-A3EE-DD8E061FC4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86110B1-79D6-4B99-A2AB-452CC582E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1967,10 +1967,10 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4658,7 +4658,7 @@
         <v>36</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
+        <f t="shared" ref="C66:C85" si="6">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
       <c r="D66" s="1">

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86110B1-79D6-4B99-A2AB-452CC582E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536D4CE8-D0F3-4912-82AF-3C261F90E047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
     <sheet name="paired t" sheetId="2" r:id="rId2"/>
     <sheet name="paired t band" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'paired t'!$A$1:$AF$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'paired t band'!$A$1:$M$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -155,6 +159,78 @@
   </si>
   <si>
     <t>beta</t>
+  </si>
+  <si>
+    <t>Response by eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed responder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes-no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pure responder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha, theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pure Nonresponder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed NONresponder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1169,10 +1245,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1186,11 +1263,13 @@
     <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="9" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,8 +1300,26 @@
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1255,8 +1352,26 @@
       <c r="J2" s="2">
         <v>3.523060049940379</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1289,8 +1404,29 @@
       <c r="J3" s="2">
         <v>-2.479055446733353E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1323,8 +1459,26 @@
       <c r="J4" s="2">
         <v>-0.10625992980917411</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1357,8 +1511,26 @@
       <c r="J5" s="2">
         <v>0.10398897482982521</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1563,26 @@
       <c r="J6" s="2">
         <v>-5.2002088905102752E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1425,8 +1615,29 @@
       <c r="J7" s="2">
         <v>-6.5025572608246457E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1459,8 +1670,26 @@
       <c r="J8" s="2">
         <v>-8.8920433425720896E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1493,8 +1722,26 @@
       <c r="J9" s="2">
         <v>-0.1514981811442693</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1527,8 +1774,26 @@
       <c r="J10" s="2">
         <v>-0.19501022550371461</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1561,8 +1826,26 @@
       <c r="J11" s="2">
         <v>-4.5846298564607847E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1878,26 @@
       <c r="J12" s="2">
         <v>-7.6306581966012893E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1629,8 +1930,26 @@
       <c r="J13" s="2">
         <v>-0.21144379331085211</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1663,8 +1982,29 @@
       <c r="J14" s="2">
         <v>1.0256365759628669</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1697,8 +2037,29 @@
       <c r="J15" s="2">
         <v>0.14020915087545521</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1731,8 +2092,29 @@
       <c r="J16" s="2">
         <v>0.14119236804840249</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1765,8 +2147,26 @@
       <c r="J17" s="2">
         <v>-1.5418417821990001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1799,8 +2199,26 @@
       <c r="J18">
         <v>5.7699329070547957E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1833,8 +2251,26 @@
       <c r="J19">
         <v>0.39727998161935291</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1867,8 +2303,26 @@
       <c r="J20">
         <v>-0.16873424374868001</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1893,8 +2347,26 @@
       <c r="J21">
         <v>-4.1042668652413718E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1919,8 +2391,26 @@
       <c r="J22">
         <v>-0.10693596138955511</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2435,34 @@
       <c r="J23">
         <v>0.1463851578030877</v>
       </c>
+      <c r="K23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AF23" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Yes"/>
+        <filter val="yes-no"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -1966,11 +2482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4658,7 +5174,7 @@
         <v>36</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C85" si="6">A66 &amp; "_" &amp; B66</f>
+        <f t="shared" ref="C66:C89" si="6">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
       <c r="D66" s="1">
@@ -5334,7 +5850,7 @@
         <v>36</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f t="shared" ref="C86:C89" si="7">A86 &amp; "_" &amp; B86</f>
+        <f t="shared" si="6"/>
         <v>조진욱_delta</v>
       </c>
       <c r="D86">
@@ -5367,7 +5883,7 @@
         <v>37</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>조진욱_theta</v>
       </c>
       <c r="D87">
@@ -5400,7 +5916,7 @@
         <v>38</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>조진욱_alpha</v>
       </c>
       <c r="D88">
@@ -5433,7 +5949,7 @@
         <v>39</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>조진욱_beta</v>
       </c>
       <c r="D89">
@@ -5459,6 +5975,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:L100">
     <cfRule type="expression" dxfId="2" priority="3">

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004A1F4-00E7-44FF-8F68-C90785725725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691A0E0-045E-4878-9311-7F248A6F274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -305,244 +305,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1488,12 +1250,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2770,12 +2532,12 @@
   <autoFilter ref="A1:AF23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5480,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
+        <f t="shared" ref="C66:C89" si="6">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
       <c r="D66" s="4">
@@ -5496,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f t="shared" ref="H66:H97" si="7">IF(G66&lt;0.001, "&lt;0.001", G66)</f>
+        <f t="shared" ref="H66:H89" si="7">IF(G66&lt;0.001, "&lt;0.001", G66)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I66" s="4">
@@ -5506,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" ref="K66:K97" si="8">IF(J66&lt;0.001, "&lt;0.001", J66)</f>
+        <f t="shared" ref="K66:K89" si="8">IF(J66&lt;0.001, "&lt;0.001", J66)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L66" s="4">
@@ -6460,17 +6222,17 @@
   <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:L100">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>MOD(ROW()-ROW($A$2), 8) &lt; 4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D100">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2&gt;E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E100">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>E2&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6484,7 +6246,7 @@
   <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9720,30 +9482,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:L111">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(ROW()-2, 10) &lt; 5</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D111">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D2&gt;$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E111">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$E2&gt;$D2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D111">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>$D2&gt;$E2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J111">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$J2&gt;0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L111">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ABS($L2)&gt;=0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>ABS($L2)&gt;=0.2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esin4\OneDrive\바탕 화면\Github\Mg_infusion_coma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brain_Science\Documents\GitHub\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691A0E0-045E-4878-9311-7F248A6F274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A37409E-6CA4-439C-8AD8-12073F219A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
@@ -6245,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brain_Science\Documents\GitHub\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A37409E-6CA4-439C-8AD8-12073F219A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6BE43-B665-4C20-A3C2-EDE04B3977C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>mean_after</t>
+  </si>
+  <si>
+    <t>mean_pre_infusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean_post_infusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -697,7 +705,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A2:A23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6245,11 +6253,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -6262,10 +6274,10 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brain_Science\Documents\GitHub\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6BE43-B665-4C20-A3C2-EDE04B3977C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03263EFF-178D-4AE7-971E-0AD6E3F7C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brain_Science\Documents\GitHub\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03263EFF-178D-4AE7-971E-0AD6E3F7C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5063FA-470E-407E-BE08-E93D38DF9343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
-    <sheet name="paired t" sheetId="3" r:id="rId2"/>
-    <sheet name="paired t band" sheetId="4" r:id="rId3"/>
-    <sheet name="gamma" sheetId="2" r:id="rId4"/>
+    <sheet name="paired t" sheetId="2" r:id="rId2"/>
+    <sheet name="paired t band" sheetId="3" r:id="rId3"/>
+    <sheet name="gamma" sheetId="4" r:id="rId4"/>
+    <sheet name="subacute" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'paired t'!$A$1:$AF$23</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -129,21 +131,6 @@
     <t>조진욱</t>
   </si>
   <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>theta</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>gamma</t>
-  </si>
-  <si>
     <t>ks_statistics</t>
   </si>
   <si>
@@ -157,6 +144,18 @@
   </si>
   <si>
     <t>Response type</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
   <si>
     <t>Yes</t>
@@ -208,10 +207,86 @@
   </si>
   <si>
     <t>mean_pre_infusion</t>
+  </si>
+  <si>
+    <t>mean_post_infusion</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>day1</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>day3</t>
+  </si>
+  <si>
+    <t>민병춘</t>
+  </si>
+  <si>
+    <t>박주연</t>
+  </si>
+  <si>
+    <t>Natus</t>
+  </si>
+  <si>
+    <t>존재 안함</t>
+  </si>
+  <si>
+    <t>못 찾음</t>
+  </si>
+  <si>
+    <t>day4</t>
+  </si>
+  <si>
+    <t>day5</t>
+  </si>
+  <si>
+    <t>day6</t>
+  </si>
+  <si>
+    <t>day7</t>
+  </si>
+  <si>
+    <t>정광훈</t>
+  </si>
+  <si>
+    <t>존재 안함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mean_post_infusion</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +394,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1272,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -1293,8 +1368,8 @@
     <col min="11" max="11" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.25" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="44" width="9" style="2" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="2"/>
+    <col min="14" max="51" width="9" style="2" customWidth="1"/>
+    <col min="52" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1308,13 +1383,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1329,22 +1404,22 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1381,25 +1456,25 @@
         <v>3.523060049940379</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1436,28 +1511,28 @@
         <v>-2.479055446733353E-3</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1494,25 +1569,25 @@
         <v>-0.10625992980917411</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1549,25 +1624,25 @@
         <v>0.10398897482982521</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,25 +1679,25 @@
         <v>-5.2002088905102752E-2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1659,28 +1734,28 @@
         <v>-6.5025572608246457E-2</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1717,25 +1792,25 @@
         <v>-8.8920433425720896E-2</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1772,25 +1847,25 @@
         <v>-0.1514981811442693</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1827,25 +1902,25 @@
         <v>-0.19501022550371461</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1882,25 +1957,25 @@
         <v>-4.5846298564607847E-2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1937,25 +2012,25 @@
         <v>-7.6306581966012893E-3</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1992,22 +2067,22 @@
         <v>-0.21144379331085211</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2044,28 +2119,28 @@
         <v>1.0256365759628669</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -2102,25 +2177,25 @@
         <v>0.14020915087545521</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -2157,25 +2232,25 @@
         <v>0.14119236804840249</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="O16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -2212,25 +2287,25 @@
         <v>-1.5418417821990001E-2</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -2267,22 +2342,22 @@
         <v>5.7699329070547957E-2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -2319,25 +2394,25 @@
         <v>0.39727998161935291</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2374,25 +2449,25 @@
         <v>-0.16873424374868001</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -2421,25 +2496,25 @@
         <v>-4.1042668652413718E-2</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -2468,25 +2543,25 @@
         <v>-0.10693596138955511</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2515,29 +2590,29 @@
         <v>0.1463851578030877</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AF23" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30">
     <cfRule type="expression" dxfId="10" priority="2">
@@ -2550,12 +2625,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -2584,25 +2659,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -2622,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C33" si="0">A2 &amp; "_" &amp; B2</f>
@@ -2663,7 +2738,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2704,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2745,7 +2820,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2786,7 +2861,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2827,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2869,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2910,7 +2985,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2951,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2992,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3033,7 +3108,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3074,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3115,7 +3190,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3156,7 +3231,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3197,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3238,7 +3313,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3279,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3320,7 +3395,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3361,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3402,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3443,7 +3518,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3484,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3525,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3566,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3607,7 +3682,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3648,7 +3723,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3689,7 +3764,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3730,7 +3805,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3771,7 +3846,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3812,7 +3887,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3853,7 +3928,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3894,7 +3969,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3935,7 +4010,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ref="C34:C65" si="3">A34 &amp; "_" &amp; B34</f>
@@ -3976,7 +4051,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4017,7 +4092,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4058,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4099,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4140,7 +4215,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4181,7 +4256,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4222,7 +4297,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4263,7 +4338,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4304,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4345,7 +4420,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4386,7 +4461,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4427,7 +4502,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4468,7 +4543,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4509,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4550,7 +4625,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4591,7 +4666,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4632,7 +4707,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4673,7 +4748,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4714,7 +4789,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4755,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4796,7 +4871,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4837,7 +4912,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4878,7 +4953,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4919,7 +4994,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4960,7 +5035,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5001,7 +5076,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5042,7 +5117,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5083,7 +5158,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5124,7 +5199,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5165,7 +5240,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5206,7 +5281,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5247,10 +5322,10 @@
         <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C89" si="6">A66 &amp; "_" &amp; B66</f>
+        <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
       <c r="D66" s="4">
@@ -5266,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f t="shared" ref="H66:H89" si="7">IF(G66&lt;0.001, "&lt;0.001", G66)</f>
+        <f t="shared" ref="H66:H97" si="7">IF(G66&lt;0.001, "&lt;0.001", G66)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I66" s="4">
@@ -5276,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" ref="K66:K89" si="8">IF(J66&lt;0.001, "&lt;0.001", J66)</f>
+        <f t="shared" ref="K66:K97" si="8">IF(J66&lt;0.001, "&lt;0.001", J66)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L66" s="4">
@@ -5288,7 +5363,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5329,7 +5404,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5370,7 +5445,7 @@
         <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5411,7 +5486,7 @@
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5452,7 +5527,7 @@
         <v>24</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5493,7 +5568,7 @@
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5534,7 +5609,7 @@
         <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5575,7 +5650,7 @@
         <v>25</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5616,7 +5691,7 @@
         <v>25</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5657,7 +5732,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5698,7 +5773,7 @@
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5739,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5780,7 +5855,7 @@
         <v>26</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5821,7 +5896,7 @@
         <v>26</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5862,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5903,7 +5978,7 @@
         <v>27</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5944,7 +6019,7 @@
         <v>27</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5985,7 +6060,7 @@
         <v>27</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6026,7 +6101,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6067,7 +6142,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6108,7 +6183,7 @@
         <v>28</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6149,7 +6224,7 @@
         <v>28</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6190,7 +6265,7 @@
         <v>28</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6227,7 +6302,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:L100">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -6250,17 +6325,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -6268,25 +6343,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -6306,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1.7032940321948109E-8</v>
@@ -6335,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>5.6160555317767081E-9</v>
@@ -6364,7 +6439,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>9.3547147710743507E-10</v>
@@ -6393,7 +6468,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1.141392498523254E-10</v>
@@ -6422,7 +6497,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>1.6165243290970469E-11</v>
@@ -6451,7 +6526,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>1.5608997951721169E-9</v>
@@ -6480,7 +6555,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>4.9450906546130204E-10</v>
@@ -6509,7 +6584,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1.663953203991209E-10</v>
@@ -6538,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>6.9576964542420959E-11</v>
@@ -6567,7 +6642,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>7.0244552581353757E-12</v>
@@ -6596,7 +6671,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>9.2346740832993392E-9</v>
@@ -6625,7 +6700,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>3.9083918003885103E-9</v>
@@ -6654,7 +6729,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1.7001370949129699E-9</v>
@@ -6683,7 +6758,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>1.0233752753229431E-9</v>
@@ -6712,7 +6787,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>1.02077761614368E-10</v>
@@ -6741,7 +6816,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>6.4016458827842477E-9</v>
@@ -6770,7 +6845,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>8.5578764201401701E-10</v>
@@ -6799,7 +6874,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>2.4070704058212658E-10</v>
@@ -6828,7 +6903,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>5.4932515757180707E-11</v>
@@ -6857,7 +6932,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>8.4366908195256272E-12</v>
@@ -6886,7 +6961,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>1.5122439678579191E-9</v>
@@ -6915,7 +6990,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>4.7240552884830141E-10</v>
@@ -6944,7 +7019,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>2.3316180953132298E-10</v>
@@ -6973,7 +7048,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>5.0168777121870741E-11</v>
@@ -7002,7 +7077,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>5.6821020338701559E-12</v>
@@ -7031,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>4.4942380132192273E-9</v>
@@ -7060,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>8.0075733165817394E-10</v>
@@ -7089,7 +7164,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>1.5040288194077119E-10</v>
@@ -7118,7 +7193,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>3.3084698691086779E-11</v>
@@ -7147,7 +7222,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>1.5808533050770871E-11</v>
@@ -7176,7 +7251,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <v>2.97019519775288E-9</v>
@@ -7205,7 +7280,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>8.7769804262934943E-10</v>
@@ -7234,7 +7309,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>5.26994173227203E-10</v>
@@ -7263,7 +7338,7 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>8.6283293913806927E-11</v>
@@ -7292,7 +7367,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>2.338121399627994E-11</v>
@@ -7321,7 +7396,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>2.543221674700238E-9</v>
@@ -7350,7 +7425,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>7.7190343704612057E-10</v>
@@ -7379,7 +7454,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>3.8974090104485021E-10</v>
@@ -7408,7 +7483,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40">
         <v>4.3536439730519283E-11</v>
@@ -7437,7 +7512,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>5.2076933097255133E-12</v>
@@ -7466,7 +7541,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>7.0569883618210912E-9</v>
@@ -7495,7 +7570,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D43">
         <v>3.3298004134927741E-9</v>
@@ -7524,7 +7599,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>1.331409845749622E-9</v>
@@ -7553,7 +7628,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45">
         <v>3.0159766686535862E-10</v>
@@ -7582,7 +7657,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>2.454717608133752E-11</v>
@@ -7611,7 +7686,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D47">
         <v>2.410878910447234E-9</v>
@@ -7640,7 +7715,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D48">
         <v>6.718452483244721E-10</v>
@@ -7669,7 +7744,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D49">
         <v>1.740872405267407E-10</v>
@@ -7698,7 +7773,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <v>3.3056664652732642E-11</v>
@@ -7727,7 +7802,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>2.300862148202814E-12</v>
@@ -7756,7 +7831,7 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D52">
         <v>5.4977538671572528E-9</v>
@@ -7785,7 +7860,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D53">
         <v>1.618344672416817E-9</v>
@@ -7814,7 +7889,7 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D54">
         <v>8.4970936440527288E-10</v>
@@ -7843,7 +7918,7 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55">
         <v>2.1005551453454149E-10</v>
@@ -7872,7 +7947,7 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <v>2.3256801859898039E-11</v>
@@ -7901,7 +7976,7 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D57">
         <v>1.1077561048164069E-8</v>
@@ -7930,7 +8005,7 @@
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>1.0937028649104821E-8</v>
@@ -7959,7 +8034,7 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>3.7823984998293733E-9</v>
@@ -7988,7 +8063,7 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D60">
         <v>4.528960754848195E-10</v>
@@ -8017,7 +8092,7 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <v>2.01282826544092E-11</v>
@@ -8046,7 +8121,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>3.3195481480190178E-9</v>
@@ -8075,7 +8150,7 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D63">
         <v>8.1439666535287911E-10</v>
@@ -8104,7 +8179,7 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D64">
         <v>2.5207144520951882E-10</v>
@@ -8133,7 +8208,7 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D65">
         <v>3.8340294971304777E-11</v>
@@ -8162,7 +8237,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D66">
         <v>3.1668676929216912E-12</v>
@@ -8191,7 +8266,7 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>1.7220623353369751E-9</v>
@@ -8220,7 +8295,7 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D68">
         <v>1.97751765795745E-10</v>
@@ -8249,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D69">
         <v>1.2026100014847661E-10</v>
@@ -8278,7 +8353,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D70">
         <v>4.6848286646064278E-11</v>
@@ -8307,7 +8382,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D71">
         <v>9.8763749463549449E-12</v>
@@ -8336,7 +8411,7 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D72">
         <v>3.9201937819208682E-8</v>
@@ -8365,7 +8440,7 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D73">
         <v>1.9119033064563691E-8</v>
@@ -8394,7 +8469,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D74">
         <v>1.9108087611537349E-8</v>
@@ -8423,7 +8498,7 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D75">
         <v>7.6354649985608641E-9</v>
@@ -8452,7 +8527,7 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D76">
         <v>1.3583396048122189E-9</v>
@@ -8481,7 +8556,7 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D77">
         <v>5.831190647044901E-8</v>
@@ -8510,7 +8585,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D78">
         <v>1.1943521870305419E-8</v>
@@ -8539,7 +8614,7 @@
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D79">
         <v>3.7314200842682907E-9</v>
@@ -8568,7 +8643,7 @@
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D80">
         <v>1.128071621210828E-9</v>
@@ -8597,7 +8672,7 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D81">
         <v>3.014131159111268E-10</v>
@@ -8626,7 +8701,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D82">
         <v>1.8168710663792281E-8</v>
@@ -8655,7 +8730,7 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D83">
         <v>2.2788323740638969E-10</v>
@@ -8684,7 +8759,7 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D84">
         <v>3.6380265155304878E-11</v>
@@ -8713,7 +8788,7 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D85">
         <v>1.757449794130304E-11</v>
@@ -8742,7 +8817,7 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D86">
         <v>3.9966323548590967E-12</v>
@@ -8771,7 +8846,7 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D87">
         <v>5.6012138573728721E-9</v>
@@ -8800,7 +8875,7 @@
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D88">
         <v>1.195572236844748E-9</v>
@@ -8829,7 +8904,7 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D89">
         <v>1.472915552671827E-9</v>
@@ -8858,7 +8933,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D90">
         <v>2.7255536820787742E-9</v>
@@ -8887,7 +8962,7 @@
         <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D91">
         <v>1.140695840463548E-9</v>
@@ -8916,7 +8991,7 @@
         <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D92">
         <v>9.0881492021399506E-9</v>
@@ -8945,7 +9020,7 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D93">
         <v>3.9778211833367222E-9</v>
@@ -8974,7 +9049,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D94">
         <v>1.1490409382257559E-9</v>
@@ -9003,7 +9078,7 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D95">
         <v>2.5042982077410732E-10</v>
@@ -9032,7 +9107,7 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D96">
         <v>4.3074299738056748E-11</v>
@@ -9061,7 +9136,7 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D97">
         <v>1.333229764194595E-8</v>
@@ -9090,7 +9165,7 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D98">
         <v>2.845003855630666E-9</v>
@@ -9119,7 +9194,7 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D99">
         <v>8.3332225178159946E-10</v>
@@ -9148,7 +9223,7 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D100">
         <v>1.3453237124747259E-10</v>
@@ -9177,7 +9252,7 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D101">
         <v>2.3343942494279459E-11</v>
@@ -9206,7 +9281,7 @@
         <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D102">
         <v>2.2741561344254099E-9</v>
@@ -9235,7 +9310,7 @@
         <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D103">
         <v>7.2579555156348835E-10</v>
@@ -9264,7 +9339,7 @@
         <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D104">
         <v>2.722411635537689E-10</v>
@@ -9293,7 +9368,7 @@
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D105">
         <v>7.3578409790945047E-11</v>
@@ -9322,7 +9397,7 @@
         <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D106">
         <v>6.9501866615767703E-12</v>
@@ -9351,7 +9426,7 @@
         <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D107">
         <v>1.463215085014356E-8</v>
@@ -9380,7 +9455,7 @@
         <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D108">
         <v>2.46065103744363E-9</v>
@@ -9409,7 +9484,7 @@
         <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D109">
         <v>1.4020349047392989E-9</v>
@@ -9438,7 +9513,7 @@
         <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D110">
         <v>3.2554495856676981E-10</v>
@@ -9467,7 +9542,7 @@
         <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D111">
         <v>5.4386523993109898E-11</v>
@@ -9523,4 +9598,5513 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>1.104101090666658E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>3.3631980476004643E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>7.4087395184335753E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>4.3766884485360153E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>4.9983448095783814E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>7.1174050542307916E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>2.8938722526649662E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>5.0144156112320363E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>5.1007202859439352E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>8.5820705103450914E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>1.6859024607208659E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>3.9643260429055668E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>1.136858204767957E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>1.404633495402158E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>9.7110892277402288E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>1.445387983553338E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>4.2110960087489118E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>2.2618386340039481E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>2.429109762444652E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>1.5192483278026771E-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>1.067615596932729E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>7.7071626914943165E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>1.080749363865201E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>1.007746788800429E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>1.0888083806200181E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>1.224424376212408E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>1.3491789372219409E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>3.4543970621651698E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>7.1946091245850802E-11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>1.089704436196004E-11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>5.0855743858994434E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>1.9635832828360649E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>5.7528251216498924E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>6.6685116084066368E-11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>7.3775109297796078E-12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>1.049868335367357E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38">
+        <v>1.413250114884824E-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>3.6051486744090782E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>6.681427790277071E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>8.5169804071112428E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>1.474698318621676E-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43">
+        <v>1.661331771712719E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>1.4149221771789431E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>3.8986822733909452E-11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>4.5848561785976869E-12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>2.7700475518096429E-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>5.5175875774460802E-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>1.1825621298008179E-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55">
+        <v>3.5228953830951723E-11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>2.000697971123263E-11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>3.689762930888152E-9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>6.5034235593362759E-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>1.308982309513562E-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>2.7701766203135151E-11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>1.0939321525895071E-11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>1.1421272400335701E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73">
+        <v>1.2272653623405949E-8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>4.2762416362120877E-9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75">
+        <v>6.6602353908755174E-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76">
+        <v>5.109940202297668E-11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77">
+        <v>5.1341371591968758E-9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78">
+        <v>6.6116500371632414E-9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79">
+        <v>7.2215045161014347E-9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80">
+        <v>1.6416143337347609E-9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>1.7159180601390281E-10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82">
+        <v>1.487629560774956E-9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83">
+        <v>7.1535476026623813E-10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <v>1.9057752448459081E-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85">
+        <v>3.286764093954758E-11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86">
+        <v>4.3500190336998894E-12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92">
+        <v>8.8783301517215237E-9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93">
+        <v>4.0527350590629033E-9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94">
+        <v>1.82389642789107E-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95">
+        <v>6.6766161605266954E-10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96">
+        <v>7.329393329828009E-11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102">
+        <v>1.732640789393285E-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103">
+        <v>1.521852068841555E-8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>5.1516737966662047E-9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105">
+        <v>5.8134652552031872E-10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106">
+        <v>2.9725251831151747E-11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107">
+        <v>2.5914482894325729E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108">
+        <v>2.015239757899459E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>6.8357212868611918E-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110">
+        <v>8.3323099222756884E-10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111">
+        <v>3.4133949424259528E-11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112">
+        <v>1.1802192077815399E-9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113">
+        <v>5.7436036392440231E-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <v>3.1990316342609242E-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115">
+        <v>3.6793842882044327E-11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116">
+        <v>4.9791851388401379E-12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117">
+        <v>1.3690186524327451E-9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118">
+        <v>2.6135228791607902E-10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <v>1.286145709842681E-10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120">
+        <v>4.1611345276099647E-11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121">
+        <v>3.7793578960713466E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122">
+        <v>1.0260711583620169E-9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123">
+        <v>1.908630181913192E-10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124">
+        <v>9.3602353283598227E-11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125">
+        <v>3.66331142838239E-11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" t="s">
+        <v>62</v>
+      </c>
+      <c r="D126">
+        <v>4.3492526766115997E-12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127">
+        <v>2.3795496407486801E-9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128">
+        <v>5.138553756902818E-10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129">
+        <v>1.9646647358583921E-10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>61</v>
+      </c>
+      <c r="D130">
+        <v>7.8999215609409462E-11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" t="s">
+        <v>62</v>
+      </c>
+      <c r="D131">
+        <v>1.5574047499667601E-11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" t="s">
+        <v>60</v>
+      </c>
+      <c r="E139" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="E140" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141" t="s">
+        <v>62</v>
+      </c>
+      <c r="E141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142">
+        <v>4.960139098208014E-9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143">
+        <v>4.7670746184330252E-11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144">
+        <v>1.6517798305998071E-11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145">
+        <v>7.6534075524796177E-12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146">
+        <v>3.5837155226055571E-12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147">
+        <v>4.1532980586176403E-11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148">
+        <v>1.337692652851704E-11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149">
+        <v>6.6422338769066387E-12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150">
+        <v>2.997508404445812E-12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151">
+        <v>4.4262765310194866E-12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152">
+        <v>1.5764187356235181E-9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153">
+        <v>2.937143313635415E-10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154">
+        <v>8.2562445835973071E-11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" t="s">
+        <v>61</v>
+      </c>
+      <c r="D155">
+        <v>4.6155611870431572E-11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" t="s">
+        <v>62</v>
+      </c>
+      <c r="D156">
+        <v>5.2333405613563988E-11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" t="s">
+        <v>63</v>
+      </c>
+      <c r="C157" t="s">
+        <v>58</v>
+      </c>
+      <c r="E157" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" t="s">
+        <v>60</v>
+      </c>
+      <c r="E159" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160" t="s">
+        <v>61</v>
+      </c>
+      <c r="E160" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" t="s">
+        <v>62</v>
+      </c>
+      <c r="E161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162">
+        <v>8.997958981499921E-9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" t="s">
+        <v>59</v>
+      </c>
+      <c r="D163">
+        <v>5.0901560818784784E-9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" t="s">
+        <v>60</v>
+      </c>
+      <c r="D164">
+        <v>2.798490790950648E-9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" t="s">
+        <v>61</v>
+      </c>
+      <c r="D165">
+        <v>1.205706933383746E-9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166" t="s">
+        <v>62</v>
+      </c>
+      <c r="D166">
+        <v>2.192562347980115E-10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D167">
+        <v>3.600241790164871E-9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168">
+        <v>1.2457987731088819E-9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>25</v>
+      </c>
+      <c r="B169" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169">
+        <v>4.4925180673053551E-10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" t="s">
+        <v>61</v>
+      </c>
+      <c r="D170">
+        <v>9.0375547898903631E-11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" t="s">
+        <v>62</v>
+      </c>
+      <c r="D171">
+        <v>1.310179230262602E-11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>26</v>
+      </c>
+      <c r="B172" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" t="s">
+        <v>58</v>
+      </c>
+      <c r="D172">
+        <v>1.6655554229860618E-8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>26</v>
+      </c>
+      <c r="B173" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173">
+        <v>3.7915928541750364E-9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174">
+        <v>1.130082241558066E-9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" t="s">
+        <v>61</v>
+      </c>
+      <c r="D175">
+        <v>1.9103578767454741E-10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" t="s">
+        <v>62</v>
+      </c>
+      <c r="D176">
+        <v>1.009313798506567E-10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>26</v>
+      </c>
+      <c r="B177" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177">
+        <v>2.4178696532358609E-8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>26</v>
+      </c>
+      <c r="B178" t="s">
+        <v>63</v>
+      </c>
+      <c r="C178" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178">
+        <v>5.9930594911469194E-9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" t="s">
+        <v>63</v>
+      </c>
+      <c r="C179" t="s">
+        <v>60</v>
+      </c>
+      <c r="D179">
+        <v>1.444551512220085E-9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" t="s">
+        <v>61</v>
+      </c>
+      <c r="D180">
+        <v>2.265782650933195E-10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" t="s">
+        <v>62</v>
+      </c>
+      <c r="D181">
+        <v>2.2660237254045691E-11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>73</v>
+      </c>
+      <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" t="s">
+        <v>58</v>
+      </c>
+      <c r="D182">
+        <v>2.9357548969328621E-9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183">
+        <v>1.48303349121334E-9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>73</v>
+      </c>
+      <c r="B184" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184">
+        <v>3.9703418547520348E-10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>73</v>
+      </c>
+      <c r="B185" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185">
+        <v>8.1260178696091729E-11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>73</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" t="s">
+        <v>62</v>
+      </c>
+      <c r="D186">
+        <v>1.0659359608819491E-11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" t="s">
+        <v>58</v>
+      </c>
+      <c r="D187">
+        <v>1.49508051623181E-10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>73</v>
+      </c>
+      <c r="B188" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" t="s">
+        <v>59</v>
+      </c>
+      <c r="D188">
+        <v>5.1516722991116412E-11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>73</v>
+      </c>
+      <c r="B189" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" t="s">
+        <v>60</v>
+      </c>
+      <c r="D189">
+        <v>2.4386505624349901E-11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>73</v>
+      </c>
+      <c r="B190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190">
+        <v>7.6657702873054439E-12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B191" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191">
+        <v>4.2066993553712047E-12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192">
+        <v>2.7747293741881601E-9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" t="s">
+        <v>57</v>
+      </c>
+      <c r="C193" t="s">
+        <v>59</v>
+      </c>
+      <c r="D193">
+        <v>4.5472333330856638E-10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194">
+        <v>3.2498600941615849E-10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" t="s">
+        <v>61</v>
+      </c>
+      <c r="D195">
+        <v>7.2661051029256425E-11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" t="s">
+        <v>62</v>
+      </c>
+      <c r="D196">
+        <v>1.030605526070791E-11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" t="s">
+        <v>63</v>
+      </c>
+      <c r="C197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197">
+        <v>3.757265654741729E-9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" t="s">
+        <v>63</v>
+      </c>
+      <c r="C198" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198">
+        <v>8.0986026875053148E-10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199">
+        <v>3.9857182831945601E-10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" t="s">
+        <v>61</v>
+      </c>
+      <c r="D200">
+        <v>6.0211111672435857E-11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201">
+        <v>2.5878627496881711E-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:E201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>1.104101090666658E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>3.3631980476004643E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>7.4087395184335753E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>4.3766884485360153E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>4.9983448095783814E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>7.1174050542307916E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>2.8938722526649662E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>5.0144156112320363E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>5.1007202859439352E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>8.5820705103450914E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>1.6859024607208659E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>3.9643260429055668E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>1.136858204767957E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>1.404633495402158E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>9.7110892277402288E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>1.445387983553338E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>4.2110960087489118E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>2.2618386340039481E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>2.429109762444652E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>1.5192483278026771E-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>1.067615596932729E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>7.7071626914943165E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>1.080749363865201E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>1.007746788800429E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>1.0888083806200181E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>1.224424376212408E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>1.3491789372219409E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>3.4543970621651698E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>7.1946091245850802E-11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>1.089704436196004E-11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>5.0855743858994434E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>1.9635832828360649E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>5.7528251216498924E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>6.6685116084066368E-11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>7.3775109297796078E-12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>1.049868335367357E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38">
+        <v>1.413250114884824E-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>3.6051486744090782E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>6.681427790277071E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>8.5169804071112428E-12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>2.7700475518096429E-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>5.5175875774460802E-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>1.1825621298008179E-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55">
+        <v>3.5228953830951723E-11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>2.000697971123263E-11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>3.689762930888152E-9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>6.5034235593362759E-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>1.308982309513562E-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>2.7701766203135151E-11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>1.0939321525895071E-11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>1.1421272400335701E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73">
+        <v>1.2272653623405949E-8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>4.2762416362120877E-9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75">
+        <v>6.6602353908755174E-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76">
+        <v>5.109940202297668E-11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77">
+        <v>5.1341371591968758E-9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78">
+        <v>6.6116500371632414E-9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79">
+        <v>7.2215045161014347E-9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80">
+        <v>1.6416143337347609E-9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>1.7159180601390281E-10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82">
+        <v>1.487629560774956E-9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83">
+        <v>7.1535476026623813E-10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <v>1.9057752448459081E-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85">
+        <v>3.286764093954758E-11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86">
+        <v>4.3500190336998894E-12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92">
+        <v>8.8783301517215237E-9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93">
+        <v>4.0527350590629033E-9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94">
+        <v>1.82389642789107E-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95">
+        <v>6.6766161605266954E-10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96">
+        <v>7.329393329828009E-11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102">
+        <v>1.732640789393285E-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103">
+        <v>1.521852068841555E-8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>5.1516737966662047E-9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105">
+        <v>5.8134652552031872E-10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106">
+        <v>2.9725251831151747E-11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107">
+        <v>2.5914482894325729E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108">
+        <v>2.015239757899459E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>6.8357212868611918E-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110">
+        <v>8.3323099222756884E-10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111">
+        <v>3.4133949424259528E-11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112">
+        <v>1.1802192077815399E-9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113">
+        <v>5.7436036392440231E-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <v>3.1990316342609242E-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115">
+        <v>3.6793842882044327E-11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116">
+        <v>4.9791851388401379E-12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117">
+        <v>1.3690186524327451E-9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118">
+        <v>2.6135228791607902E-10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <v>1.286145709842681E-10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120">
+        <v>4.1611345276099647E-11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121">
+        <v>3.7793578960713466E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122">
+        <v>1.0260711583620169E-9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123">
+        <v>1.908630181913192E-10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124">
+        <v>9.3602353283598227E-11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125">
+        <v>3.66331142838239E-11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" t="s">
+        <v>62</v>
+      </c>
+      <c r="D126">
+        <v>4.3492526766115997E-12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127">
+        <v>2.3795496407486801E-9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128">
+        <v>5.138553756902818E-10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129">
+        <v>1.9646647358583921E-10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>61</v>
+      </c>
+      <c r="D130">
+        <v>7.8999215609409462E-11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" t="s">
+        <v>62</v>
+      </c>
+      <c r="D131">
+        <v>1.5574047499667601E-11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" t="s">
+        <v>60</v>
+      </c>
+      <c r="E139" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="E140" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141" t="s">
+        <v>62</v>
+      </c>
+      <c r="E141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142">
+        <v>4.960139098208014E-9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143">
+        <v>4.7670746184330252E-11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144">
+        <v>1.6517798305998071E-11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145">
+        <v>7.6534075524796177E-12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146">
+        <v>3.5837155226055571E-12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147">
+        <v>4.1532980586176403E-11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148">
+        <v>1.337692652851704E-11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149">
+        <v>6.6422338769066387E-12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150">
+        <v>2.997508404445812E-12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151">
+        <v>4.4262765310194866E-12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152">
+        <v>1.5764187356235181E-9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153">
+        <v>2.937143313635415E-10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154">
+        <v>8.2562445835973071E-11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" t="s">
+        <v>61</v>
+      </c>
+      <c r="D155">
+        <v>4.6155611870431572E-11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" t="s">
+        <v>62</v>
+      </c>
+      <c r="D156">
+        <v>5.2333405613563988E-11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" t="s">
+        <v>63</v>
+      </c>
+      <c r="C157" t="s">
+        <v>58</v>
+      </c>
+      <c r="E157" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" t="s">
+        <v>60</v>
+      </c>
+      <c r="E159" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160" t="s">
+        <v>61</v>
+      </c>
+      <c r="E160" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" t="s">
+        <v>62</v>
+      </c>
+      <c r="E161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162">
+        <v>8.997958981499921E-9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" t="s">
+        <v>59</v>
+      </c>
+      <c r="D163">
+        <v>5.0901560818784784E-9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" t="s">
+        <v>60</v>
+      </c>
+      <c r="D164">
+        <v>2.798490790950648E-9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" t="s">
+        <v>61</v>
+      </c>
+      <c r="D165">
+        <v>1.205706933383746E-9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166" t="s">
+        <v>62</v>
+      </c>
+      <c r="D166">
+        <v>2.192562347980115E-10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D167">
+        <v>3.600241790164871E-9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168">
+        <v>1.2457987731088819E-9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>25</v>
+      </c>
+      <c r="B169" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169">
+        <v>4.4925180673053551E-10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" t="s">
+        <v>61</v>
+      </c>
+      <c r="D170">
+        <v>9.0375547898903631E-11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" t="s">
+        <v>62</v>
+      </c>
+      <c r="D171">
+        <v>1.310179230262602E-11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>26</v>
+      </c>
+      <c r="B172" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" t="s">
+        <v>58</v>
+      </c>
+      <c r="D172">
+        <v>1.6655554229860618E-8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>26</v>
+      </c>
+      <c r="B173" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173">
+        <v>3.7915928541750364E-9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174">
+        <v>1.130082241558066E-9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" t="s">
+        <v>61</v>
+      </c>
+      <c r="D175">
+        <v>1.9103578767454741E-10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" t="s">
+        <v>62</v>
+      </c>
+      <c r="D176">
+        <v>1.009313798506567E-10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>26</v>
+      </c>
+      <c r="B177" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177">
+        <v>2.4178696532358609E-8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>26</v>
+      </c>
+      <c r="B178" t="s">
+        <v>63</v>
+      </c>
+      <c r="C178" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178">
+        <v>5.9930594911469194E-9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" t="s">
+        <v>63</v>
+      </c>
+      <c r="C179" t="s">
+        <v>60</v>
+      </c>
+      <c r="D179">
+        <v>1.444551512220085E-9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" t="s">
+        <v>61</v>
+      </c>
+      <c r="D180">
+        <v>2.265782650933195E-10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" t="s">
+        <v>62</v>
+      </c>
+      <c r="D181">
+        <v>2.2660237254045691E-11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>73</v>
+      </c>
+      <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" t="s">
+        <v>58</v>
+      </c>
+      <c r="D182">
+        <v>2.9357548969328621E-9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183">
+        <v>1.48303349121334E-9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>73</v>
+      </c>
+      <c r="B184" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184">
+        <v>3.9703418547520348E-10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>73</v>
+      </c>
+      <c r="B185" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185">
+        <v>8.1260178696091729E-11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>73</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" t="s">
+        <v>62</v>
+      </c>
+      <c r="D186">
+        <v>1.0659359608819491E-11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" t="s">
+        <v>58</v>
+      </c>
+      <c r="D187">
+        <v>1.49508051623181E-10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>73</v>
+      </c>
+      <c r="B188" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" t="s">
+        <v>59</v>
+      </c>
+      <c r="D188">
+        <v>5.1516722991116412E-11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>73</v>
+      </c>
+      <c r="B189" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" t="s">
+        <v>60</v>
+      </c>
+      <c r="D189">
+        <v>2.4386505624349901E-11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>73</v>
+      </c>
+      <c r="B190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190">
+        <v>7.6657702873054439E-12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B191" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191">
+        <v>4.2066993553712047E-12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192">
+        <v>2.7747293741881601E-9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" t="s">
+        <v>57</v>
+      </c>
+      <c r="C193" t="s">
+        <v>59</v>
+      </c>
+      <c r="D193">
+        <v>4.5472333330856638E-10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194">
+        <v>3.2498600941615849E-10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" t="s">
+        <v>61</v>
+      </c>
+      <c r="D195">
+        <v>7.2661051029256425E-11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" t="s">
+        <v>62</v>
+      </c>
+      <c r="D196">
+        <v>1.030605526070791E-11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" t="s">
+        <v>63</v>
+      </c>
+      <c r="C197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197">
+        <v>3.757265654741729E-9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" t="s">
+        <v>63</v>
+      </c>
+      <c r="C198" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198">
+        <v>8.0986026875053148E-10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199">
+        <v>3.9857182831945601E-10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" t="s">
+        <v>61</v>
+      </c>
+      <c r="D200">
+        <v>6.0211111672435857E-11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201">
+        <v>2.5878627496881711E-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mg_infusion_data.xlsx
+++ b/Mg_infusion_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brain_Science\Documents\GitHub\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5063FA-470E-407E-BE08-E93D38DF9343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6BCBB-8ABA-44FF-907D-42956FEC5B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent t" sheetId="1" r:id="rId1"/>
@@ -5325,7 +5325,7 @@
         <v>37</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C97" si="6">A66 &amp; "_" &amp; B66</f>
+        <f t="shared" ref="C66:C89" si="6">A66 &amp; "_" &amp; B66</f>
         <v>정용태_delta</v>
       </c>
       <c r="D66" s="4">
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f t="shared" ref="H66:H97" si="7">IF(G66&lt;0.001, "&lt;0.001", G66)</f>
+        <f t="shared" ref="H66:H89" si="7">IF(G66&lt;0.001, "&lt;0.001", G66)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="I66" s="4">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" ref="K66:K97" si="8">IF(J66&lt;0.001, "&lt;0.001", J66)</f>
+        <f t="shared" ref="K66:K89" si="8">IF(J66&lt;0.001, "&lt;0.001", J66)</f>
         <v>&lt;0.001</v>
       </c>
       <c r="L66" s="4">
@@ -9604,7 +9604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -12437,8 +12437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
